--- a/Template-Generator_for_Moodle_Databases.xlsx
+++ b/Template-Generator_for_Moodle_Databases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aa2fd555716d4621/Schule/Schule/Medien/Moodle/Vorlagen/Datenbank/Git/moodle-database-generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1045" documentId="13_ncr:1_{7DEECC36-6B18-4B7F-96A7-5897EB976A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88FC706C-ED16-4933-BF71-8D5AF7E3B5FC}"/>
+  <xr:revisionPtr revIDLastSave="1048" documentId="13_ncr:1_{7DEECC36-6B18-4B7F-96A7-5897EB976A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59B817FD-1F3B-4CB0-8AD8-3C75A9F6D995}"/>
   <bookViews>
     <workbookView xWindow="32811" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{B7FF9584-A0C9-4520-8363-27EB39F90318}"/>
   </bookViews>
@@ -507,7 +507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -635,10 +635,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -996,6 +992,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E58CC641-CF45-4CFF-8CC1-2ECB18EEAC18}" name="Tabelle1" displayName="Tabelle1" ref="B2:L100" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <autoFilter ref="B2:L100" xr:uid="{E58CC641-CF45-4CFF-8CC1-2ECB18EEAC18}"/>
@@ -1472,7 +1472,7 @@
       <c r="D11" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="42" t="str">
+      <c r="E11" s="6" t="str">
         <f>IF($E$7="EN","Add Entry","Neuer Eintrag")</f>
         <v>Add Entry</v>
       </c>
@@ -1548,7 +1548,7 @@
       <c r="D16" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="42" t="str">
+      <c r="E16" s="6" t="str">
         <f>IF($E$7="EN","View Single","Einzelansicht")</f>
         <v>View Single</v>
       </c>
@@ -5673,8 +5673,8 @@
         <v>CSS template</v>
       </c>
       <c r="C15" s="5" t="str">
-        <f>"/* CSS for dropdown-menu in list view */ #region-main .dropdown-menu .icon.fa.fa-search-plus.fa-fw::after { content: ' "&amp;IF(Settings!$E$7="EN","View single","Einzelansicht")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-cog.fa-fw::after { content: ' "&amp;IF(Settings!$E$7="EN","Edit","Bearbeiten")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-pencil.fa-fw::after { content: ' "&amp;IF(Settings!$E$7="EN","Edit","Bearbeiten")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-trash.fa-fw::after { content: ' "&amp;IF(Settings!$E$7="EN","Delete","Löschen")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-ban.fa-fw.iconsmall::after { content: ' "&amp;IF(Settings!$E$7="EN","Do not approve","Nicht freigeben")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-thumbs-up.fa-fw.iconsmall::after { content: ' "&amp;IF(Settings!$E$7="EN","Approve","Zulassen")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-item:empty { display: none; } "&amp;" /* Headlines */ h4 { margin-top: 1em; margin-bottom: 0.3em; font-weight: 300; } "&amp;" /* responsive images */ #page-mod-data-view img.list_picture { max-width: 100%; } "&amp;" /* Button color */ .btn-outline-primary { color: "&amp;Settings!E24&amp;"!important; border-color: "&amp;Settings!E24&amp;"!important; } "&amp;".btn-outline-primary:hover, .btn-outline-primary:active, .btn-outline-primary:visited, .btn-outline-primary:focus {background-color: "&amp;Settings!E24&amp;" !important;color: #ffffff !important;}"&amp;".dropdown-item:hover .icon {color: #fff;}"&amp;" /* Header new entry */ #page-mod-data-edit .card-header { background-color: "&amp;Settings!E12&amp;" !important; } "&amp;" #page-mod-data-edit .card-header h4 { color: "&amp;Settings!E13&amp;"; } .dropdown-item:hover{background-color: "&amp;Settings!E24&amp;";}"&amp;" /* Headlines formfields */ h6 { font-size: 1.2em; font-weight: 400; margin-bottom: 0.7em; } "&amp;" /* margin after Atto editor */ .mod-data-input:has(.editor_atto_wrap) { margin-bottom: 20px; } "&amp;" /* Header color single view */ #page-mod-data-view .card-header { background-color: "&amp;Settings!E17&amp;" !important; } "&amp;" #page-mod-data-view .card-header h4 { color: "&amp;Settings!E18&amp;"; } "&amp;" /* Edit Icons color and bigger size */ .card-header .icon { color: "&amp;Settings!E19&amp;"; font-size: 20px; width: 20px; height: 20px; } "&amp;" /* Style of table header in list view */ th { background-color: "&amp;Settings!E22&amp;"; color: "&amp;Settings!E23&amp;"; }"</f>
-        <v>/* CSS for dropdown-menu in list view */ #region-main .dropdown-menu .icon.fa.fa-search-plus.fa-fw::after { content: ' View single'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-cog.fa-fw::after { content: ' Edit'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-pencil.fa-fw::after { content: ' Edit'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-trash.fa-fw::after { content: ' Delete'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-ban.fa-fw.iconsmall::after { content: ' Do not approve'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-thumbs-up.fa-fw.iconsmall::after { content: ' Approve'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-item:empty { display: none; }  /* Headlines */ h4 { margin-top: 1em; margin-bottom: 0.3em; font-weight: 300; }  /* responsive images */ #page-mod-data-view img.list_picture { max-width: 100%; }  /* Button color */ .btn-outline-primary { color: #008196!important; border-color: #008196!important; } .btn-outline-primary:hover, .btn-outline-primary:active, .btn-outline-primary:visited, .btn-outline-primary:focus {background-color: #008196 !important;color: #ffffff !important;}.dropdown-item:hover .icon {color: #fff;} /* Header new entry */ #page-mod-data-edit .card-header { background-color: #008196 !important; }  #page-mod-data-edit .card-header h4 { color: #ffffff; } .dropdown-item:hover{background-color: #008196;} /* Headlines formfields */ h6 { font-size: 1.2em; font-weight: 400; margin-bottom: 0.7em; }  /* margin after Atto editor */ .mod-data-input:has(.editor_atto_wrap) { margin-bottom: 20px; }  /* Header color single view */ #page-mod-data-view .card-header { background-color: #008196 !important; }  #page-mod-data-view .card-header h4 { color: #ffffff; }  /* Edit Icons color and bigger size */ .card-header .icon { color: #ffffff; font-size: 20px; width: 20px; height: 20px; }  /* Style of table header in list view */ th { background-color: #008196; color: #ffffff; }</v>
+        <f>"/* CSS for dropdown-menu in list view */ #region-main .dropdown-menu .icon.fa.fa-search-plus.fa-fw::after { content: ' "&amp;IF(Settings!$E$7="EN","View single","Einzelansicht")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-cog.fa-fw::after { content: ' "&amp;IF(Settings!$E$7="EN","Edit","Bearbeiten")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-pencil.fa-fw::after { content: ' "&amp;IF(Settings!$E$7="EN","Edit","Bearbeiten")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-trash.fa-fw::after { content: ' "&amp;IF(Settings!$E$7="EN","Delete","Löschen")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-ban.fa-fw.iconsmall::after { content: ' "&amp;IF(Settings!$E$7="EN","Do not approve","Nicht freigeben")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-thumbs-up.fa-fw.iconsmall::after { content: ' "&amp;IF(Settings!$E$7="EN","Approve","Zulassen")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-item:empty { display: none; } "&amp;" /* Headlines */ h4 { margin-top: 1em; margin-bottom: 0.3em; font-weight: 300; } "&amp;" /* responsive images */ #page-mod-data-view img.list_picture { max-width: 100%; } "&amp;" /* Button color */ .btn-outline-primary { color: "&amp;Settings!E24&amp;"!important; border-color: "&amp;Settings!E24&amp;"!important; } "&amp;".btn-outline-primary:hover, .btn-outline-primary:active, .btn-outline-primary:focus {background-color: "&amp;Settings!E24&amp;" !important;color: #ffffff !important;}"&amp;".dropdown-item:hover .icon {color: #fff;}"&amp;" /* Header new entry */ #page-mod-data-edit .card-header { background-color: "&amp;Settings!E12&amp;" !important; } "&amp;" #page-mod-data-edit .card-header h4 { color: "&amp;Settings!E13&amp;"; } .dropdown-item:hover{background-color: "&amp;Settings!E24&amp;";}"&amp;" /* Headlines formfields */ h6 { font-size: 1.2em; font-weight: 400; margin-bottom: 0.7em; } "&amp;" /* margin after Atto editor */ .mod-data-input:has(.editor_atto_wrap) { margin-bottom: 20px; } "&amp;" /* Header color single view */ #page-mod-data-view .card-header { background-color: "&amp;Settings!E17&amp;" !important; } "&amp;" #page-mod-data-view .card-header h4 { color: "&amp;Settings!E18&amp;"; } "&amp;" /* Edit Icons color and bigger size */ .card-header .icon { color: "&amp;Settings!E19&amp;"; font-size: 20px; width: 20px; height: 20px; } "&amp;" /* Style of table header in list view */ th { background-color: "&amp;Settings!E22&amp;"; color: "&amp;Settings!E23&amp;"; }"</f>
+        <v>/* CSS for dropdown-menu in list view */ #region-main .dropdown-menu .icon.fa.fa-search-plus.fa-fw::after { content: ' View single'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-cog.fa-fw::after { content: ' Edit'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-pencil.fa-fw::after { content: ' Edit'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-trash.fa-fw::after { content: ' Delete'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-ban.fa-fw.iconsmall::after { content: ' Do not approve'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-thumbs-up.fa-fw.iconsmall::after { content: ' Approve'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-item:empty { display: none; }  /* Headlines */ h4 { margin-top: 1em; margin-bottom: 0.3em; font-weight: 300; }  /* responsive images */ #page-mod-data-view img.list_picture { max-width: 100%; }  /* Button color */ .btn-outline-primary { color: #008196!important; border-color: #008196!important; } .btn-outline-primary:hover, .btn-outline-primary:active, .btn-outline-primary:focus {background-color: #008196 !important;color: #ffffff !important;}.dropdown-item:hover .icon {color: #fff;} /* Header new entry */ #page-mod-data-edit .card-header { background-color: #008196 !important; }  #page-mod-data-edit .card-header h4 { color: #ffffff; } .dropdown-item:hover{background-color: #008196;} /* Headlines formfields */ h6 { font-size: 1.2em; font-weight: 400; margin-bottom: 0.7em; }  /* margin after Atto editor */ .mod-data-input:has(.editor_atto_wrap) { margin-bottom: 20px; }  /* Header color single view */ #page-mod-data-view .card-header { background-color: #008196 !important; }  #page-mod-data-view .card-header h4 { color: #ffffff; }  /* Edit Icons color and bigger size */ .card-header .icon { color: #ffffff; font-size: 20px; width: 20px; height: 20px; }  /* Style of table header in list view */ th { background-color: #008196; color: #ffffff; }</v>
       </c>
       <c r="D15" s="1" t="str">
         <f>""</f>
@@ -5703,7 +5703,7 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C4:C7 C11:C15 C9" unlockedFormula="1"/>
+    <ignoredError sqref="C4:C7 C11:C14 C9" unlockedFormula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Template-Generator_for_Moodle_Databases.xlsx
+++ b/Template-Generator_for_Moodle_Databases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aa2fd555716d4621/Schule/Schule/Medien/Moodle/Vorlagen/Datenbank/Git/moodle-database-generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1048" documentId="13_ncr:1_{7DEECC36-6B18-4B7F-96A7-5897EB976A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59B817FD-1F3B-4CB0-8AD8-3C75A9F6D995}"/>
+  <xr:revisionPtr revIDLastSave="1051" documentId="13_ncr:1_{7DEECC36-6B18-4B7F-96A7-5897EB976A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2F356C5-A206-46F2-A381-42EDFC3302EA}"/>
   <bookViews>
     <workbookView xWindow="32811" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{B7FF9584-A0C9-4520-8363-27EB39F90318}"/>
   </bookViews>
@@ -992,10 +992,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E58CC641-CF45-4CFF-8CC1-2ECB18EEAC18}" name="Tabelle1" displayName="Tabelle1" ref="B2:L100" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <autoFilter ref="B2:L100" xr:uid="{E58CC641-CF45-4CFF-8CC1-2ECB18EEAC18}"/>
@@ -5673,8 +5669,8 @@
         <v>CSS template</v>
       </c>
       <c r="C15" s="5" t="str">
-        <f>"/* CSS for dropdown-menu in list view */ #region-main .dropdown-menu .icon.fa.fa-search-plus.fa-fw::after { content: ' "&amp;IF(Settings!$E$7="EN","View single","Einzelansicht")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-cog.fa-fw::after { content: ' "&amp;IF(Settings!$E$7="EN","Edit","Bearbeiten")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-pencil.fa-fw::after { content: ' "&amp;IF(Settings!$E$7="EN","Edit","Bearbeiten")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-trash.fa-fw::after { content: ' "&amp;IF(Settings!$E$7="EN","Delete","Löschen")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-ban.fa-fw.iconsmall::after { content: ' "&amp;IF(Settings!$E$7="EN","Do not approve","Nicht freigeben")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-thumbs-up.fa-fw.iconsmall::after { content: ' "&amp;IF(Settings!$E$7="EN","Approve","Zulassen")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-item:empty { display: none; } "&amp;" /* Headlines */ h4 { margin-top: 1em; margin-bottom: 0.3em; font-weight: 300; } "&amp;" /* responsive images */ #page-mod-data-view img.list_picture { max-width: 100%; } "&amp;" /* Button color */ .btn-outline-primary { color: "&amp;Settings!E24&amp;"!important; border-color: "&amp;Settings!E24&amp;"!important; } "&amp;".btn-outline-primary:hover, .btn-outline-primary:active, .btn-outline-primary:focus {background-color: "&amp;Settings!E24&amp;" !important;color: #ffffff !important;}"&amp;".dropdown-item:hover .icon {color: #fff;}"&amp;" /* Header new entry */ #page-mod-data-edit .card-header { background-color: "&amp;Settings!E12&amp;" !important; } "&amp;" #page-mod-data-edit .card-header h4 { color: "&amp;Settings!E13&amp;"; } .dropdown-item:hover{background-color: "&amp;Settings!E24&amp;";}"&amp;" /* Headlines formfields */ h6 { font-size: 1.2em; font-weight: 400; margin-bottom: 0.7em; } "&amp;" /* margin after Atto editor */ .mod-data-input:has(.editor_atto_wrap) { margin-bottom: 20px; } "&amp;" /* Header color single view */ #page-mod-data-view .card-header { background-color: "&amp;Settings!E17&amp;" !important; } "&amp;" #page-mod-data-view .card-header h4 { color: "&amp;Settings!E18&amp;"; } "&amp;" /* Edit Icons color and bigger size */ .card-header .icon { color: "&amp;Settings!E19&amp;"; font-size: 20px; width: 20px; height: 20px; } "&amp;" /* Style of table header in list view */ th { background-color: "&amp;Settings!E22&amp;"; color: "&amp;Settings!E23&amp;"; }"</f>
-        <v>/* CSS for dropdown-menu in list view */ #region-main .dropdown-menu .icon.fa.fa-search-plus.fa-fw::after { content: ' View single'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-cog.fa-fw::after { content: ' Edit'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-pencil.fa-fw::after { content: ' Edit'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-trash.fa-fw::after { content: ' Delete'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-ban.fa-fw.iconsmall::after { content: ' Do not approve'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-thumbs-up.fa-fw.iconsmall::after { content: ' Approve'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-item:empty { display: none; }  /* Headlines */ h4 { margin-top: 1em; margin-bottom: 0.3em; font-weight: 300; }  /* responsive images */ #page-mod-data-view img.list_picture { max-width: 100%; }  /* Button color */ .btn-outline-primary { color: #008196!important; border-color: #008196!important; } .btn-outline-primary:hover, .btn-outline-primary:active, .btn-outline-primary:focus {background-color: #008196 !important;color: #ffffff !important;}.dropdown-item:hover .icon {color: #fff;} /* Header new entry */ #page-mod-data-edit .card-header { background-color: #008196 !important; }  #page-mod-data-edit .card-header h4 { color: #ffffff; } .dropdown-item:hover{background-color: #008196;} /* Headlines formfields */ h6 { font-size: 1.2em; font-weight: 400; margin-bottom: 0.7em; }  /* margin after Atto editor */ .mod-data-input:has(.editor_atto_wrap) { margin-bottom: 20px; }  /* Header color single view */ #page-mod-data-view .card-header { background-color: #008196 !important; }  #page-mod-data-view .card-header h4 { color: #ffffff; }  /* Edit Icons color and bigger size */ .card-header .icon { color: #ffffff; font-size: 20px; width: 20px; height: 20px; }  /* Style of table header in list view */ th { background-color: #008196; color: #ffffff; }</v>
+        <f>"/* CSS for dropdown-menu in list view */ #region-main .dropdown-menu .icon.fa.fa-search-plus.fa-fw::after { content: ' "&amp;IF(Settings!$E$7="EN","View single","Einzelansicht")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-cog.fa-fw::after { content: ' "&amp;IF(Settings!$E$7="EN","Edit","Bearbeiten")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-pencil.fa-fw::after { content: ' "&amp;IF(Settings!$E$7="EN","Edit","Bearbeiten")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-trash.fa-fw::after { content: ' "&amp;IF(Settings!$E$7="EN","Delete","Löschen")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-ban.fa-fw.iconsmall::after { content: ' "&amp;IF(Settings!$E$7="EN","Do not approve","Nicht freigeben")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-thumbs-up.fa-fw.iconsmall::after { content: ' "&amp;IF(Settings!$E$7="EN","Approve","Zulassen")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-item:empty { display: none; } "&amp;".dropdown-item:not(.text-truncate) {white-space: nowrap;}"&amp;" /* Headlines */ h4 { margin-top: 1em; margin-bottom: 0.3em; font-weight: 300; } "&amp;" /* responsive images */ #page-mod-data-view img.list_picture { max-width: 100%; } "&amp;" /* Button color */ .btn-outline-primary { color: "&amp;Settings!E24&amp;"!important; border-color: "&amp;Settings!E24&amp;"!important; } "&amp;".btn-outline-primary:hover, .btn-outline-primary:active, .btn-outline-primary:focus {background-color: "&amp;Settings!E24&amp;" !important;color: #ffffff !important;}"&amp;".dropdown-item:hover .icon {color: #fff;}"&amp;" /* Header new entry */ #page-mod-data-edit .card-header { background-color: "&amp;Settings!E12&amp;" !important; } "&amp;" #page-mod-data-edit .card-header h4 { color: "&amp;Settings!E13&amp;"; } .dropdown-item:hover{background-color: "&amp;Settings!E24&amp;";}"&amp;" /* Headlines formfields */ h6 { font-size: 1.2em; font-weight: 400; margin-bottom: 0.7em; } "&amp;" /* margin after Atto editor */ .mod-data-input:has(.editor_atto_wrap) { margin-bottom: 20px; } "&amp;" /* Header color single view */ #page-mod-data-view .card-header { background-color: "&amp;Settings!E17&amp;" !important; } "&amp;" #page-mod-data-view .card-header h4 { color: "&amp;Settings!E18&amp;"; } "&amp;" /* Edit Icons color and bigger size */ .card-header .icon { color: "&amp;Settings!E19&amp;"; font-size: 20px; width: 20px; height: 20px; } "&amp;" /* Style of table header in list view */ th { background-color: "&amp;Settings!E22&amp;"; color: "&amp;Settings!E23&amp;"; }"</f>
+        <v>/* CSS for dropdown-menu in list view */ #region-main .dropdown-menu .icon.fa.fa-search-plus.fa-fw::after { content: ' View single'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-cog.fa-fw::after { content: ' Edit'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-pencil.fa-fw::after { content: ' Edit'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-trash.fa-fw::after { content: ' Delete'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-ban.fa-fw.iconsmall::after { content: ' Do not approve'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-thumbs-up.fa-fw.iconsmall::after { content: ' Approve'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-item:empty { display: none; } .dropdown-item:not(.text-truncate) {white-space: nowrap;} /* Headlines */ h4 { margin-top: 1em; margin-bottom: 0.3em; font-weight: 300; }  /* responsive images */ #page-mod-data-view img.list_picture { max-width: 100%; }  /* Button color */ .btn-outline-primary { color: #008196!important; border-color: #008196!important; } .btn-outline-primary:hover, .btn-outline-primary:active, .btn-outline-primary:focus {background-color: #008196 !important;color: #ffffff !important;}.dropdown-item:hover .icon {color: #fff;} /* Header new entry */ #page-mod-data-edit .card-header { background-color: #008196 !important; }  #page-mod-data-edit .card-header h4 { color: #ffffff; } .dropdown-item:hover{background-color: #008196;} /* Headlines formfields */ h6 { font-size: 1.2em; font-weight: 400; margin-bottom: 0.7em; }  /* margin after Atto editor */ .mod-data-input:has(.editor_atto_wrap) { margin-bottom: 20px; }  /* Header color single view */ #page-mod-data-view .card-header { background-color: #008196 !important; }  #page-mod-data-view .card-header h4 { color: #ffffff; }  /* Edit Icons color and bigger size */ .card-header .icon { color: #ffffff; font-size: 20px; width: 20px; height: 20px; }  /* Style of table header in list view */ th { background-color: #008196; color: #ffffff; }</v>
       </c>
       <c r="D15" s="1" t="str">
         <f>""</f>

--- a/Template-Generator_for_Moodle_Databases.xlsx
+++ b/Template-Generator_for_Moodle_Databases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aa2fd555716d4621/Schule/Schule/Medien/Moodle/Vorlagen/Datenbank/Git/moodle-database-generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1051" documentId="13_ncr:1_{7DEECC36-6B18-4B7F-96A7-5897EB976A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2F356C5-A206-46F2-A381-42EDFC3302EA}"/>
+  <xr:revisionPtr revIDLastSave="1054" documentId="13_ncr:1_{7DEECC36-6B18-4B7F-96A7-5897EB976A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1F56DC7-D0A4-42ED-BEA9-3185A1D86B29}"/>
   <bookViews>
     <workbookView xWindow="32811" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{B7FF9584-A0C9-4520-8363-27EB39F90318}"/>
   </bookViews>
@@ -5669,8 +5669,8 @@
         <v>CSS template</v>
       </c>
       <c r="C15" s="5" t="str">
-        <f>"/* CSS for dropdown-menu in list view */ #region-main .dropdown-menu .icon.fa.fa-search-plus.fa-fw::after { content: ' "&amp;IF(Settings!$E$7="EN","View single","Einzelansicht")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-cog.fa-fw::after { content: ' "&amp;IF(Settings!$E$7="EN","Edit","Bearbeiten")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-pencil.fa-fw::after { content: ' "&amp;IF(Settings!$E$7="EN","Edit","Bearbeiten")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-trash.fa-fw::after { content: ' "&amp;IF(Settings!$E$7="EN","Delete","Löschen")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-ban.fa-fw.iconsmall::after { content: ' "&amp;IF(Settings!$E$7="EN","Do not approve","Nicht freigeben")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-thumbs-up.fa-fw.iconsmall::after { content: ' "&amp;IF(Settings!$E$7="EN","Approve","Zulassen")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-item:empty { display: none; } "&amp;".dropdown-item:not(.text-truncate) {white-space: nowrap;}"&amp;" /* Headlines */ h4 { margin-top: 1em; margin-bottom: 0.3em; font-weight: 300; } "&amp;" /* responsive images */ #page-mod-data-view img.list_picture { max-width: 100%; } "&amp;" /* Button color */ .btn-outline-primary { color: "&amp;Settings!E24&amp;"!important; border-color: "&amp;Settings!E24&amp;"!important; } "&amp;".btn-outline-primary:hover, .btn-outline-primary:active, .btn-outline-primary:focus {background-color: "&amp;Settings!E24&amp;" !important;color: #ffffff !important;}"&amp;".dropdown-item:hover .icon {color: #fff;}"&amp;" /* Header new entry */ #page-mod-data-edit .card-header { background-color: "&amp;Settings!E12&amp;" !important; } "&amp;" #page-mod-data-edit .card-header h4 { color: "&amp;Settings!E13&amp;"; } .dropdown-item:hover{background-color: "&amp;Settings!E24&amp;";}"&amp;" /* Headlines formfields */ h6 { font-size: 1.2em; font-weight: 400; margin-bottom: 0.7em; } "&amp;" /* margin after Atto editor */ .mod-data-input:has(.editor_atto_wrap) { margin-bottom: 20px; } "&amp;" /* Header color single view */ #page-mod-data-view .card-header { background-color: "&amp;Settings!E17&amp;" !important; } "&amp;" #page-mod-data-view .card-header h4 { color: "&amp;Settings!E18&amp;"; } "&amp;" /* Edit Icons color and bigger size */ .card-header .icon { color: "&amp;Settings!E19&amp;"; font-size: 20px; width: 20px; height: 20px; } "&amp;" /* Style of table header in list view */ th { background-color: "&amp;Settings!E22&amp;"; color: "&amp;Settings!E23&amp;"; }"</f>
-        <v>/* CSS for dropdown-menu in list view */ #region-main .dropdown-menu .icon.fa.fa-search-plus.fa-fw::after { content: ' View single'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-cog.fa-fw::after { content: ' Edit'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-pencil.fa-fw::after { content: ' Edit'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-trash.fa-fw::after { content: ' Delete'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-ban.fa-fw.iconsmall::after { content: ' Do not approve'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-thumbs-up.fa-fw.iconsmall::after { content: ' Approve'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-item:empty { display: none; } .dropdown-item:not(.text-truncate) {white-space: nowrap;} /* Headlines */ h4 { margin-top: 1em; margin-bottom: 0.3em; font-weight: 300; }  /* responsive images */ #page-mod-data-view img.list_picture { max-width: 100%; }  /* Button color */ .btn-outline-primary { color: #008196!important; border-color: #008196!important; } .btn-outline-primary:hover, .btn-outline-primary:active, .btn-outline-primary:focus {background-color: #008196 !important;color: #ffffff !important;}.dropdown-item:hover .icon {color: #fff;} /* Header new entry */ #page-mod-data-edit .card-header { background-color: #008196 !important; }  #page-mod-data-edit .card-header h4 { color: #ffffff; } .dropdown-item:hover{background-color: #008196;} /* Headlines formfields */ h6 { font-size: 1.2em; font-weight: 400; margin-bottom: 0.7em; }  /* margin after Atto editor */ .mod-data-input:has(.editor_atto_wrap) { margin-bottom: 20px; }  /* Header color single view */ #page-mod-data-view .card-header { background-color: #008196 !important; }  #page-mod-data-view .card-header h4 { color: #ffffff; }  /* Edit Icons color and bigger size */ .card-header .icon { color: #ffffff; font-size: 20px; width: 20px; height: 20px; }  /* Style of table header in list view */ th { background-color: #008196; color: #ffffff; }</v>
+        <f>"/* CSS for dropdown-menu in list view */ #region-main .dropdown-menu .icon.fa.fa-search-plus.fa-fw::after { content: ' "&amp;IF(Settings!$E$7="EN","View single","Einzelansicht")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-cog.fa-fw::after { content: ' "&amp;IF(Settings!$E$7="EN","Edit","Bearbeiten")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-pencil.fa-fw::after { content: ' "&amp;IF(Settings!$E$7="EN","Edit","Bearbeiten")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-trash.fa-fw::after { content: ' "&amp;IF(Settings!$E$7="EN","Delete","Löschen")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-ban.fa-fw.iconsmall::after { content: ' "&amp;IF(Settings!$E$7="EN","Do not approve","Nicht freigeben")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-thumbs-up.fa-fw.iconsmall::after { content: ' "&amp;IF(Settings!$E$7="EN","Approve","Zulassen")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-item:empty { display: none; } "&amp;".dropdown-item:not(.text-truncate) {white-space: nowrap;}"&amp;" /* Headlines */ h4 { margin-top: 1em; margin-bottom: 0.3em; font-weight: 300; } "&amp;" /* responsive images */ #page-mod-data-view img.list_picture { max-width: 100%; } "&amp;" /* Button color */ .btn-outline-primary { color: "&amp;Settings!E24&amp;"!important; border-color: "&amp;Settings!E24&amp;"!important; } "&amp;".btn-outline-primary:hover, .btn-outline-primary:active, .btn-outline-primary:focus {background-color: "&amp;Settings!E24&amp;" !important;color: #ffffff !important;}"&amp;".dropdown-item:hover .icon {color: #fff;}"&amp;" /* Header new entry */ #page-mod-data-edit .card-header { background-color: "&amp;Settings!E12&amp;" !important; } "&amp;" #page-mod-data-edit .card-header h4 { color: "&amp;Settings!E13&amp;"; } .dropdown-item:hover{background-color: "&amp;Settings!E24&amp;";}"&amp;" /* Headlines formfields */ h6 { font-size: 1.2em; font-weight: 400; margin-bottom: 0.7em; } "&amp;" /* margin after Atto editor */ .mod-data-input:has(.editor_atto_wrap) { margin-bottom: 20px; } "&amp;" /* Header color single view */ #page-mod-data-view .card-header { background-color: "&amp;Settings!E17&amp;" !important; } "&amp;" #page-mod-data-view .card-header h4 { color: "&amp;Settings!E18&amp;"; } "&amp;" /* Edit Icons color and bigger size */ .card-header .icon { color: "&amp;Settings!E19&amp;"; font-size: 20px; width: 20px; height: 20px; } "&amp;" /* Icons of dropdown */ .dropdown-item .icon {font-size: 16px; width: 16px; height: 16px; } "&amp;"/* Style of table header in list view */ th { background-color: "&amp;Settings!E22&amp;"; color: "&amp;Settings!E23&amp;"; }"</f>
+        <v>/* CSS for dropdown-menu in list view */ #region-main .dropdown-menu .icon.fa.fa-search-plus.fa-fw::after { content: ' View single'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-cog.fa-fw::after { content: ' Edit'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-pencil.fa-fw::after { content: ' Edit'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-trash.fa-fw::after { content: ' Delete'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-ban.fa-fw.iconsmall::after { content: ' Do not approve'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-thumbs-up.fa-fw.iconsmall::after { content: ' Approve'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-item:empty { display: none; } .dropdown-item:not(.text-truncate) {white-space: nowrap;} /* Headlines */ h4 { margin-top: 1em; margin-bottom: 0.3em; font-weight: 300; }  /* responsive images */ #page-mod-data-view img.list_picture { max-width: 100%; }  /* Button color */ .btn-outline-primary { color: #008196!important; border-color: #008196!important; } .btn-outline-primary:hover, .btn-outline-primary:active, .btn-outline-primary:focus {background-color: #008196 !important;color: #ffffff !important;}.dropdown-item:hover .icon {color: #fff;} /* Header new entry */ #page-mod-data-edit .card-header { background-color: #008196 !important; }  #page-mod-data-edit .card-header h4 { color: #ffffff; } .dropdown-item:hover{background-color: #008196;} /* Headlines formfields */ h6 { font-size: 1.2em; font-weight: 400; margin-bottom: 0.7em; }  /* margin after Atto editor */ .mod-data-input:has(.editor_atto_wrap) { margin-bottom: 20px; }  /* Header color single view */ #page-mod-data-view .card-header { background-color: #008196 !important; }  #page-mod-data-view .card-header h4 { color: #ffffff; }  /* Edit Icons color and bigger size */ .card-header .icon { color: #ffffff; font-size: 20px; width: 20px; height: 20px; }  /* Icons of dropdown */ .dropdown-item .icon {font-size: 16px; width: 16px; height: 16px; } /* Style of table header in list view */ th { background-color: #008196; color: #ffffff; }</v>
       </c>
       <c r="D15" s="1" t="str">
         <f>""</f>

--- a/Template-Generator_for_Moodle_Databases.xlsx
+++ b/Template-Generator_for_Moodle_Databases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aa2fd555716d4621/Schule/Schule/Medien/Moodle/Vorlagen/Datenbank/Git/moodle-database-generator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aa2fd555716d4621/Schule/Schule/Medien/Moodle/Vorlagen/Datenbank/Git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1054" documentId="13_ncr:1_{7DEECC36-6B18-4B7F-96A7-5897EB976A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1F56DC7-D0A4-42ED-BEA9-3185A1D86B29}"/>
+  <xr:revisionPtr revIDLastSave="1070" documentId="13_ncr:1_{7DEECC36-6B18-4B7F-96A7-5897EB976A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30475773-0498-4241-835A-95D1C8108758}"/>
   <bookViews>
     <workbookView xWindow="32811" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{B7FF9584-A0C9-4520-8363-27EB39F90318}"/>
   </bookViews>
@@ -642,6 +642,45 @@
   </cellStyles>
   <dxfs count="21">
     <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF008196"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -931,45 +970,6 @@
       </border>
       <protection locked="1" hidden="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF008196"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -993,34 +993,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E58CC641-CF45-4CFF-8CC1-2ECB18EEAC18}" name="Tabelle1" displayName="Tabelle1" ref="B2:L100" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E58CC641-CF45-4CFF-8CC1-2ECB18EEAC18}" name="Tabelle1" displayName="Tabelle1" ref="B2:L100" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17" totalsRowBorderDxfId="16">
   <autoFilter ref="B2:L100" xr:uid="{E58CC641-CF45-4CFF-8CC1-2ECB18EEAC18}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{2CAD02C3-E989-47F2-ACF1-05D86CC61050}" name="Moodle field / Feld" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{B960D793-A4EA-4541-8B7A-84581F4C723A}" name="fiel#id" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{2CAD02C3-E989-47F2-ACF1-05D86CC61050}" name="Moodle field / Feld" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{B960D793-A4EA-4541-8B7A-84581F4C723A}" name="fiel#id" dataDxfId="14">
       <calculatedColumnFormula>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B3&amp;"]]")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{DCDC97CD-02E6-4CE9-9F45-005A62064FC9}" name="Headline / Überschriften" dataDxfId="8">
+    <tableColumn id="2" xr3:uid="{DCDC97CD-02E6-4CE9-9F45-005A62064FC9}" name="Headline / Überschriften" dataDxfId="13">
       <calculatedColumnFormula>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{14D5DAFB-44D4-41AB-99EC-75E1A211501C}" name="Custom Headline / Eigene Überschrift" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{73C1862E-07BA-4DA4-A5A7-3EE3F8645709}" name="Datatable-Priority / Priorität" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{BED9F1AF-933E-484D-B943-F21888931742}" name="divs" dataDxfId="5">
+    <tableColumn id="3" xr3:uid="{14D5DAFB-44D4-41AB-99EC-75E1A211501C}" name="Custom Headline / Eigene Überschrift" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{73C1862E-07BA-4DA4-A5A7-3EE3F8645709}" name="Datatable-Priority / Priorität" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{BED9F1AF-933E-484D-B943-F21888931742}" name="divs" dataDxfId="10">
       <calculatedColumnFormula>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D3&amp;"&lt;/h4&gt;"&amp;C3&amp;"&lt;br&gt;&lt;/div&gt;"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F65B0FC7-4D25-4967-9C79-E815C7C09652}" name="th" dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{F65B0FC7-4D25-4967-9C79-E815C7C09652}" name="th" dataDxfId="9">
       <calculatedColumnFormula>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{7F22C2F6-82A9-4292-8453-565D3776B203}" name="th-dt" dataDxfId="3">
+    <tableColumn id="11" xr3:uid="{7F22C2F6-82A9-4292-8453-565D3776B203}" name="th-dt" dataDxfId="8">
       <calculatedColumnFormula>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3B5DCC51-0242-46B9-A6E0-0032E39596DB}" name="td" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{3B5DCC51-0242-46B9-A6E0-0032E39596DB}" name="td" dataDxfId="7">
       <calculatedColumnFormula>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{73A94E74-D092-4EB3-B6B4-F3F1F171A2EE}" name="p" dataDxfId="1">
+    <tableColumn id="8" xr3:uid="{73A94E74-D092-4EB3-B6B4-F3F1F171A2EE}" name="p" dataDxfId="6">
       <calculatedColumnFormula>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B03A9011-0203-4333-A7A9-6BF47E4ED1DD}" name="rss" dataDxfId="0">
+    <tableColumn id="9" xr3:uid="{B03A9011-0203-4333-A7A9-6BF47E4ED1DD}" name="rss" dataDxfId="5">
       <calculatedColumnFormula>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5418,15 +5418,15 @@
   <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" selectLockedCells="1" sort="0"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B3:C100">
-    <cfRule type="expression" dxfId="20" priority="10">
+    <cfRule type="expression" dxfId="4" priority="10">
       <formula>$C3="[[]]"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B100">
-    <cfRule type="duplicateValues" dxfId="19" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E100">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"&lt;----- Add field or select a ##tag##"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5669,8 +5669,8 @@
         <v>CSS template</v>
       </c>
       <c r="C15" s="5" t="str">
-        <f>"/* CSS for dropdown-menu in list view */ #region-main .dropdown-menu .icon.fa.fa-search-plus.fa-fw::after { content: ' "&amp;IF(Settings!$E$7="EN","View single","Einzelansicht")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-cog.fa-fw::after { content: ' "&amp;IF(Settings!$E$7="EN","Edit","Bearbeiten")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-pencil.fa-fw::after { content: ' "&amp;IF(Settings!$E$7="EN","Edit","Bearbeiten")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-trash.fa-fw::after { content: ' "&amp;IF(Settings!$E$7="EN","Delete","Löschen")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-ban.fa-fw.iconsmall::after { content: ' "&amp;IF(Settings!$E$7="EN","Do not approve","Nicht freigeben")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-thumbs-up.fa-fw.iconsmall::after { content: ' "&amp;IF(Settings!$E$7="EN","Approve","Zulassen")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-item:empty { display: none; } "&amp;".dropdown-item:not(.text-truncate) {white-space: nowrap;}"&amp;" /* Headlines */ h4 { margin-top: 1em; margin-bottom: 0.3em; font-weight: 300; } "&amp;" /* responsive images */ #page-mod-data-view img.list_picture { max-width: 100%; } "&amp;" /* Button color */ .btn-outline-primary { color: "&amp;Settings!E24&amp;"!important; border-color: "&amp;Settings!E24&amp;"!important; } "&amp;".btn-outline-primary:hover, .btn-outline-primary:active, .btn-outline-primary:focus {background-color: "&amp;Settings!E24&amp;" !important;color: #ffffff !important;}"&amp;".dropdown-item:hover .icon {color: #fff;}"&amp;" /* Header new entry */ #page-mod-data-edit .card-header { background-color: "&amp;Settings!E12&amp;" !important; } "&amp;" #page-mod-data-edit .card-header h4 { color: "&amp;Settings!E13&amp;"; } .dropdown-item:hover{background-color: "&amp;Settings!E24&amp;";}"&amp;" /* Headlines formfields */ h6 { font-size: 1.2em; font-weight: 400; margin-bottom: 0.7em; } "&amp;" /* margin after Atto editor */ .mod-data-input:has(.editor_atto_wrap) { margin-bottom: 20px; } "&amp;" /* Header color single view */ #page-mod-data-view .card-header { background-color: "&amp;Settings!E17&amp;" !important; } "&amp;" #page-mod-data-view .card-header h4 { color: "&amp;Settings!E18&amp;"; } "&amp;" /* Edit Icons color and bigger size */ .card-header .icon { color: "&amp;Settings!E19&amp;"; font-size: 20px; width: 20px; height: 20px; } "&amp;" /* Icons of dropdown */ .dropdown-item .icon {font-size: 16px; width: 16px; height: 16px; } "&amp;"/* Style of table header in list view */ th { background-color: "&amp;Settings!E22&amp;"; color: "&amp;Settings!E23&amp;"; }"</f>
-        <v>/* CSS for dropdown-menu in list view */ #region-main .dropdown-menu .icon.fa.fa-search-plus.fa-fw::after { content: ' View single'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-cog.fa-fw::after { content: ' Edit'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-pencil.fa-fw::after { content: ' Edit'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-trash.fa-fw::after { content: ' Delete'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-ban.fa-fw.iconsmall::after { content: ' Do not approve'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-thumbs-up.fa-fw.iconsmall::after { content: ' Approve'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-item:empty { display: none; } .dropdown-item:not(.text-truncate) {white-space: nowrap;} /* Headlines */ h4 { margin-top: 1em; margin-bottom: 0.3em; font-weight: 300; }  /* responsive images */ #page-mod-data-view img.list_picture { max-width: 100%; }  /* Button color */ .btn-outline-primary { color: #008196!important; border-color: #008196!important; } .btn-outline-primary:hover, .btn-outline-primary:active, .btn-outline-primary:focus {background-color: #008196 !important;color: #ffffff !important;}.dropdown-item:hover .icon {color: #fff;} /* Header new entry */ #page-mod-data-edit .card-header { background-color: #008196 !important; }  #page-mod-data-edit .card-header h4 { color: #ffffff; } .dropdown-item:hover{background-color: #008196;} /* Headlines formfields */ h6 { font-size: 1.2em; font-weight: 400; margin-bottom: 0.7em; }  /* margin after Atto editor */ .mod-data-input:has(.editor_atto_wrap) { margin-bottom: 20px; }  /* Header color single view */ #page-mod-data-view .card-header { background-color: #008196 !important; }  #page-mod-data-view .card-header h4 { color: #ffffff; }  /* Edit Icons color and bigger size */ .card-header .icon { color: #ffffff; font-size: 20px; width: 20px; height: 20px; }  /* Icons of dropdown */ .dropdown-item .icon {font-size: 16px; width: 16px; height: 16px; } /* Style of table header in list view */ th { background-color: #008196; color: #ffffff; }</v>
+        <f>"/* CSS for dropdown-menu in list view */ #region-main .dropdown-menu .icon.fa.fa-search-plus.fa-fw::after { content: ' "&amp;IF(Settings!$E$7="EN", "View single", "Einzelansicht")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } " &amp;" #region-main .dropdown-menu .icon.fa.fa-cog.fa-fw::after { content: ' "&amp;IF(Settings!$E$7="EN", "Edit", "Bearbeiten")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } " &amp;" #region-main .dropdown-menu .icon.fa.fa-pencil.fa-fw::after { content: ' "&amp;IF(Settings!$E$7="EN", "Edit", "Bearbeiten")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } " &amp;" #region-main .dropdown-menu .icon.fa.fa-trash.fa-fw::after { content: ' "&amp;IF(Settings!$E$7="EN", "Delete", "Löschen")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } " &amp;" #region-main .dropdown-menu .icon.fa.fa-ban.fa-fw.iconsmall::after { content: ' "&amp;IF(Settings!$E$7="EN", "Do not approve", "Nicht freigeben")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } " &amp;" #region-main .dropdown-menu .icon.fa.fa-thumbs-up.fa-fw.iconsmall::after { content: ' "&amp;IF(Settings!$E$7="EN", "Approve", "Zulassen")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } " &amp;" #region-main .dropdown-item:empty { display: none; } " &amp;" .dropdown-item:not(.text-truncate) { white-space: nowrap; } " &amp;" /* Headlines */ #region-main h4 { margin-top: 1em; margin-bottom: 0.3em; font-weight: 300; } " &amp;" /* responsive images */ #page-mod-data-view img.list_picture { max-width: 100%; } " &amp;" /* Button color */ #region-main .btn-outline-primary { color: "&amp;Settings!E24&amp;" !important; border-color: "&amp;Settings!E24&amp;" !important; } " &amp;" #region-main .btn-outline-primary:hover, #region-main .btn-outline-primary:active, #region-main .btn-outline-primary:focus { background-color: "&amp;Settings!E24&amp;" !important; color: #ffffff !important; } " &amp;" #region-main .dropdown-item:hover .icon { color: #fff; } " &amp;" /* Header new entry */ #page-mod-data-edit #region-main .card-header { background-color: "&amp;Settings!E12&amp;" !important; } " &amp;" #page-mod-data-edit #region-main .card-header h4 { color: "&amp;Settings!E13&amp;"; } #region-main .dropdown-item:hover { background-color: "&amp;Settings!E24&amp;"; } " &amp;" /* Headlines formfields */ #region-main h6 { font-size: 1.2em; font-weight: 400; margin-bottom: 0.7em; } " &amp;" /* margin after Atto editor */ .mod-data-input:has(.editor_atto_wrap) { margin-bottom: 20px; } " &amp;" /* Header color single view */ #page-mod-data-view #region-main .card-header { background-color: "&amp;Settings!E17&amp;" !important; } " &amp;" #page-mod-data-view #region-main .card-header h4 { color: "&amp;Settings!E18&amp;"; } " &amp;" /* Edit Icons color and bigger size */ #region-main .card-header .icon { color: "&amp;Settings!E19&amp;"; font-size: 20px; width: 20px; height: 20px; } " &amp;" /* Icons of dropdown */ #region-main .dropdown-item .icon { font-size: 16px; width: 16px; height: 16px; } " &amp;" /* Style of table header in list view */ #region-main th { background-color: "&amp;Settings!E22&amp;"; color: "&amp;Settings!E23&amp;"; }"</f>
+        <v>/* CSS for dropdown-menu in list view */ #region-main .dropdown-menu .icon.fa.fa-search-plus.fa-fw::after { content: ' View single'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-cog.fa-fw::after { content: ' Edit'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-pencil.fa-fw::after { content: ' Edit'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-trash.fa-fw::after { content: ' Delete'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-ban.fa-fw.iconsmall::after { content: ' Do not approve'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-thumbs-up.fa-fw.iconsmall::after { content: ' Approve'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-item:empty { display: none; }  .dropdown-item:not(.text-truncate) { white-space: nowrap; }  /* Headlines */ #region-main h4 { margin-top: 1em; margin-bottom: 0.3em; font-weight: 300; }  /* responsive images */ #page-mod-data-view img.list_picture { max-width: 100%; }  /* Button color */ #region-main .btn-outline-primary { color: #008196 !important; border-color: #008196 !important; }  #region-main .btn-outline-primary:hover, #region-main .btn-outline-primary:active, #region-main .btn-outline-primary:focus { background-color: #008196 !important; color: #ffffff !important; }  #region-main .dropdown-item:hover .icon { color: #fff; }  /* Header new entry */ #page-mod-data-edit #region-main .card-header { background-color: #008196 !important; }  #page-mod-data-edit #region-main .card-header h4 { color: #ffffff; } #region-main .dropdown-item:hover { background-color: #008196; }  /* Headlines formfields */ #region-main h6 { font-size: 1.2em; font-weight: 400; margin-bottom: 0.7em; }  /* margin after Atto editor */ .mod-data-input:has(.editor_atto_wrap) { margin-bottom: 20px; }  /* Header color single view */ #page-mod-data-view #region-main .card-header { background-color: #008196 !important; }  #page-mod-data-view #region-main .card-header h4 { color: #ffffff; }  /* Edit Icons color and bigger size */ #region-main .card-header .icon { color: #ffffff; font-size: 20px; width: 20px; height: 20px; }  /* Icons of dropdown */ #region-main .dropdown-item .icon { font-size: 16px; width: 16px; height: 16px; }  /* Style of table header in list view */ #region-main th { background-color: #008196; color: #ffffff; }</v>
       </c>
       <c r="D15" s="1" t="str">
         <f>""</f>

--- a/Template-Generator_for_Moodle_Databases.xlsx
+++ b/Template-Generator_for_Moodle_Databases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aa2fd555716d4621/Schule/Schule/Medien/Moodle/Vorlagen/Datenbank/Git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1070" documentId="13_ncr:1_{7DEECC36-6B18-4B7F-96A7-5897EB976A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30475773-0498-4241-835A-95D1C8108758}"/>
+  <xr:revisionPtr revIDLastSave="1211" documentId="13_ncr:1_{7DEECC36-6B18-4B7F-96A7-5897EB976A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4140217-3619-4A9F-AB5A-AF20EBF1A9A3}"/>
   <bookViews>
     <workbookView xWindow="32811" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{B7FF9584-A0C9-4520-8363-27EB39F90318}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="61">
   <si>
     <t>fiel#id</t>
   </si>
@@ -212,6 +212,15 @@
   </si>
   <si>
     <t>Custom Headline / Eigene Überschrift</t>
+  </si>
+  <si>
+    <t>CSS cell references</t>
+  </si>
+  <si>
+    <t>Additional CSS</t>
+  </si>
+  <si>
+    <t>/* Headlines */ #region-main h4 { margin-top: 1em; margin-bottom: 0.3em; font-weight: 300; } /* Approval status on single view */ .single-badge { font-weight: 400; margin-bottom: -1.25rem; } /* Card border color */ #region-main .card { border-color: #c8ccd0; } /* responsive images */ #page-mod-data-view img.list_picture { max-width: 100%; } #region-main .dropdown-item:hover .icon { color: #fff; } /* Headlines formfields */ #region-main h6 { font-size: 1.2em; font-weight: 400; margin-bottom: 0.7em; } /* margin after Atto editor */ .mod-data-input:has(.editor_atto_wrap) { margin-bottom: 20px; } /* Icons of dropdown */ #region-main .dropdown-item .icon { font-size: 16px; width: 16px; height: 16px; } /* Rows are yellow if not approved + darker on hover */ table tbody tr:nth-child(2n+1):has(span.approve) { background-color: #fff3c0!important; } table tbody tr:nth-child(2n):has(span.approve) { background-color: #fff8d9!important; } table tbody tr:has(span.approve):hover { background-color: #ffeea6!important; } /* Rows are yellow if not approved (dataTables) */ table.dataTable.table&gt;tbody&gt;tr:has(span.approve)&gt;* { box-shadow: none; } /* Abstand unter dataTable */ #mydatatable { margin-bottom: 15px!important; } /* Button Abstand korrigieren */ input[value="Ins Portfolio exportieren"] { margin-top: 0.25rem; }​/* Druckversion */ @media print { #page-header, #page-footer, .intro, .nav-tabs, .datapreferences, .btn-secondary, i.icon, .comment-area, .pagination, input, .footnote, .activity-navigation { display: none; } }</t>
   </si>
 </sst>
 </file>
@@ -321,7 +330,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -349,6 +358,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF008196"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,7 +528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -636,50 +657,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="21">
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF008196"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -970,6 +958,45 @@
       </border>
       <protection locked="1" hidden="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF008196"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -993,34 +1020,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E58CC641-CF45-4CFF-8CC1-2ECB18EEAC18}" name="Tabelle1" displayName="Tabelle1" ref="B2:L100" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17" totalsRowBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E58CC641-CF45-4CFF-8CC1-2ECB18EEAC18}" name="Tabelle1" displayName="Tabelle1" ref="B2:L100" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <autoFilter ref="B2:L100" xr:uid="{E58CC641-CF45-4CFF-8CC1-2ECB18EEAC18}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{2CAD02C3-E989-47F2-ACF1-05D86CC61050}" name="Moodle field / Feld" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{B960D793-A4EA-4541-8B7A-84581F4C723A}" name="fiel#id" dataDxfId="14">
+    <tableColumn id="1" xr3:uid="{2CAD02C3-E989-47F2-ACF1-05D86CC61050}" name="Moodle field / Feld" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{B960D793-A4EA-4541-8B7A-84581F4C723A}" name="fiel#id" dataDxfId="9">
       <calculatedColumnFormula>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B3&amp;"]]")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{DCDC97CD-02E6-4CE9-9F45-005A62064FC9}" name="Headline / Überschriften" dataDxfId="13">
+    <tableColumn id="2" xr3:uid="{DCDC97CD-02E6-4CE9-9F45-005A62064FC9}" name="Headline / Überschriften" dataDxfId="8">
       <calculatedColumnFormula>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{14D5DAFB-44D4-41AB-99EC-75E1A211501C}" name="Custom Headline / Eigene Überschrift" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{73C1862E-07BA-4DA4-A5A7-3EE3F8645709}" name="Datatable-Priority / Priorität" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{BED9F1AF-933E-484D-B943-F21888931742}" name="divs" dataDxfId="10">
+    <tableColumn id="3" xr3:uid="{14D5DAFB-44D4-41AB-99EC-75E1A211501C}" name="Custom Headline / Eigene Überschrift" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{73C1862E-07BA-4DA4-A5A7-3EE3F8645709}" name="Datatable-Priority / Priorität" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{BED9F1AF-933E-484D-B943-F21888931742}" name="divs" dataDxfId="5">
       <calculatedColumnFormula>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D3&amp;"&lt;/h4&gt;"&amp;C3&amp;"&lt;br&gt;&lt;/div&gt;"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F65B0FC7-4D25-4967-9C79-E815C7C09652}" name="th" dataDxfId="9">
+    <tableColumn id="6" xr3:uid="{F65B0FC7-4D25-4967-9C79-E815C7C09652}" name="th" dataDxfId="4">
       <calculatedColumnFormula>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{7F22C2F6-82A9-4292-8453-565D3776B203}" name="th-dt" dataDxfId="8">
+    <tableColumn id="11" xr3:uid="{7F22C2F6-82A9-4292-8453-565D3776B203}" name="th-dt" dataDxfId="3">
       <calculatedColumnFormula>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3B5DCC51-0242-46B9-A6E0-0032E39596DB}" name="td" dataDxfId="7">
+    <tableColumn id="7" xr3:uid="{3B5DCC51-0242-46B9-A6E0-0032E39596DB}" name="td" dataDxfId="2">
       <calculatedColumnFormula>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{73A94E74-D092-4EB3-B6B4-F3F1F171A2EE}" name="p" dataDxfId="6">
+    <tableColumn id="8" xr3:uid="{73A94E74-D092-4EB3-B6B4-F3F1F171A2EE}" name="p" dataDxfId="1">
       <calculatedColumnFormula>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B03A9011-0203-4333-A7A9-6BF47E4ED1DD}" name="rss" dataDxfId="5">
+    <tableColumn id="9" xr3:uid="{B03A9011-0203-4333-A7A9-6BF47E4ED1DD}" name="rss" dataDxfId="0">
       <calculatedColumnFormula>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1327,7 +1354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E439D8-187D-4990-8A51-3F74A5C576DA}">
   <dimension ref="B1:F25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -5418,15 +5445,15 @@
   <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" selectLockedCells="1" sort="0"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B3:C100">
-    <cfRule type="expression" dxfId="4" priority="10">
+    <cfRule type="expression" dxfId="20" priority="10">
       <formula>$C3="[[]]"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B100">
-    <cfRule type="duplicateValues" dxfId="3" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="38"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:E100">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="D3:E5 D6 D7:E100">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
       <formula>"&lt;----- Add field or select a ##tag##"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5486,7 +5513,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBDA18EC-E1B4-42CD-BFA1-2278BF1C1F76}">
-  <dimension ref="B1:D17"/>
+  <dimension ref="B1:D19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -5515,8 +5542,8 @@
         <v>Add template</v>
       </c>
       <c r="C3" s="5" t="str">
-        <f>"&lt;div class='container'&gt;&lt;div class='card shadow mb-4 rounded'&gt;&lt;div class='card-header bg-info'&gt;&lt;h4 class='m-2'&gt;"&amp;Settings!E11&amp;"&lt;/h4&gt;&lt;/div&gt;&lt;div class='card-body pb-0 pt-4 m-0'&gt;&lt;div class='card-text m-0 p-0'&gt;"&amp;_xlfn.TEXTJOIN(,TRUE,Tabelle1[divs])&amp;"&lt;br&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;hr&gt;"</f>
-        <v>&lt;div class='container'&gt;&lt;div class='card shadow mb-4 rounded'&gt;&lt;div class='card-header bg-info'&gt;&lt;h4 class='m-2'&gt;Add Entry&lt;/h4&gt;&lt;/div&gt;&lt;div class='card-body pb-0 pt-4 m-0'&gt;&lt;div class='card-text m-0 p-0'&gt;&lt;br&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;hr&gt;</v>
+        <f>"&lt;div class='container'&gt;&lt;div class='card mb-4 rounded'&gt;&lt;div class='card-header bg-info'&gt;&lt;h4 class='m-2'&gt;"&amp;Settings!E11&amp;"&lt;/h4&gt;&lt;/div&gt;&lt;div class='card-body pb-0 pt-4 m-0'&gt;&lt;div class='card-text m-0 p-0'&gt;"&amp;_xlfn.TEXTJOIN(,TRUE,Tabelle1[divs])&amp;"&lt;br&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;hr&gt;"</f>
+        <v>&lt;div class='container'&gt;&lt;div class='card mb-4 rounded'&gt;&lt;div class='card-header bg-info'&gt;&lt;h4 class='m-2'&gt;Add Entry&lt;/h4&gt;&lt;/div&gt;&lt;div class='card-body pb-0 pt-4 m-0'&gt;&lt;div class='card-text m-0 p-0'&gt;&lt;br&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;hr&gt;</v>
       </c>
       <c r="D3" s="1" t="str">
         <f>""</f>
@@ -5529,8 +5556,8 @@
         <v>Single template</v>
       </c>
       <c r="C4" s="5" t="str">
-        <f>"&lt;div class='container'&gt; &lt;div class='card shadow mb-4 rounded'&gt; &lt;div class='card-header bg-info'&gt; &lt;div class='row'&gt;"&amp;" &lt;div class='col-6'&gt; &lt;h4 class='m-2'&gt;"&amp;Settings!E16&amp;"&lt;/h4&gt; &lt;/div&gt; &lt;div class='col-6 text-right'&gt;"&amp;"&lt;h4 class='m-2'&gt;&lt;em&gt;##approvalstatus## &lt;/em&gt;&amp;ensp; ##edit####delete####approve####disapprove##&lt;/h4&gt;&lt;/div&gt; &lt;/div&gt; &lt;/div&gt; &lt;div class='card-body'&gt; &lt;div class='container'&gt;"&amp;" &lt;div class='row'&gt; &lt;div class='col'&gt;"&amp;_xlfn.TEXTJOIN(,,Tabelle1[p])&amp;"&lt;/div&gt; &lt;/div&gt; &lt;/div&gt; &lt;/div&gt; &lt;div class='card-footer text-muted text-center'&gt;&lt;/div&gt; &lt;/div&gt; &lt;/div&gt; &lt;hr&gt;"</f>
-        <v>&lt;div class='container'&gt; &lt;div class='card shadow mb-4 rounded'&gt; &lt;div class='card-header bg-info'&gt; &lt;div class='row'&gt; &lt;div class='col-6'&gt; &lt;h4 class='m-2'&gt;View Single&lt;/h4&gt; &lt;/div&gt; &lt;div class='col-6 text-right'&gt;&lt;h4 class='m-2'&gt;&lt;em&gt;##approvalstatus## &lt;/em&gt;&amp;ensp; ##edit####delete####approve####disapprove##&lt;/h4&gt;&lt;/div&gt; &lt;/div&gt; &lt;/div&gt; &lt;div class='card-body'&gt; &lt;div class='container'&gt; &lt;div class='row'&gt; &lt;div class='col'&gt;&lt;/div&gt; &lt;/div&gt; &lt;/div&gt; &lt;/div&gt; &lt;div class='card-footer text-muted text-center'&gt;&lt;/div&gt; &lt;/div&gt; &lt;/div&gt; &lt;hr&gt;</v>
+        <f>"&lt;div class='container'&gt; &lt;div class='card mb-4 rounded'&gt; &lt;div class='card-header bg-info'&gt; &lt;div class='row'&gt;"&amp;" &lt;div class='col'&gt; &lt;h4 class='m-2' style='float: left;'&gt;"&amp;Settings!E16&amp;"&lt;/h4&gt; &lt;/div&gt; "&amp;"&lt;h4 class='m-2' style='float: right;'&gt;##edit####delete####approve####disapprove##&lt;/h4&gt;&lt;/div&gt; &lt;/div&gt; &lt;div class='card-body'&gt; &lt;div class='container'&gt;"&amp;" &lt;div class='row'&gt; &lt;div class='col'&gt;&lt;h5 class='m-0' style='float: right;'&gt;&lt;span class='badge badge-pill badge-secondary text-wrap single-badge' style='float: right;'&gt;##approvalstatus##&lt;/span&gt;&lt;/h5&gt;&lt;/div&gt; &lt;/div&gt;&lt;div class='row'&gt; &lt;div class='col'&gt;"&amp;_xlfn.TEXTJOIN(,,Tabelle1[p])&amp;"&lt;/div&gt; &lt;/div&gt; &lt;/div&gt; &lt;/div&gt;&lt;/div&gt; &lt;/div&gt; &lt;hr&gt;"</f>
+        <v>&lt;div class='container'&gt; &lt;div class='card mb-4 rounded'&gt; &lt;div class='card-header bg-info'&gt; &lt;div class='row'&gt; &lt;div class='col'&gt; &lt;h4 class='m-2' style='float: left;'&gt;View Single&lt;/h4&gt; &lt;/div&gt; &lt;h4 class='m-2' style='float: right;'&gt;##edit####delete####approve####disapprove##&lt;/h4&gt;&lt;/div&gt; &lt;/div&gt; &lt;div class='card-body'&gt; &lt;div class='container'&gt; &lt;div class='row'&gt; &lt;div class='col'&gt;&lt;h5 class='m-0' style='float: right;'&gt;&lt;span class='badge badge-pill badge-secondary text-wrap single-badge' style='float: right;'&gt;##approvalstatus##&lt;/span&gt;&lt;/h5&gt;&lt;/div&gt; &lt;/div&gt;&lt;div class='row'&gt; &lt;div class='col'&gt;&lt;/div&gt; &lt;/div&gt; &lt;/div&gt; &lt;/div&gt;&lt;/div&gt; &lt;/div&gt; &lt;hr&gt;</v>
       </c>
       <c r="D4" s="1" t="str">
         <f>""</f>
@@ -5538,10 +5565,10 @@
       </c>
     </row>
     <row r="5" spans="2:4" s="1" customFormat="1" ht="20.05" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="5" t="str">
+      <c r="C5" s="43" t="str">
         <f>"&lt;div class='table-responsive'&gt;&lt;table class='table table-bordered table-hover table-striped'&gt;&lt;thead&gt;&lt;tr class='fixieren'&gt;"&amp;_xlfn.TEXTJOIN(,TRUE,Tabelle1[th])&amp;"&lt;th class='text-center'&gt;&lt;i class='fa fa-bars' aria-hidden='true'&gt;&lt;/i&gt;&lt;/th&gt;&lt;/tr&gt;&lt;/thead&gt;"</f>
         <v>&lt;div class='table-responsive'&gt;&lt;table class='table table-bordered table-hover table-striped'&gt;&lt;thead&gt;&lt;tr class='fixieren'&gt;&lt;th class='text-center'&gt;&lt;i class='fa fa-bars' aria-hidden='true'&gt;&lt;/i&gt;&lt;/th&gt;&lt;/tr&gt;&lt;/thead&gt;</v>
       </c>
@@ -5551,10 +5578,10 @@
       </c>
     </row>
     <row r="6" spans="2:4" s="1" customFormat="1" ht="20.05" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5" t="str">
+      <c r="C6" s="43" t="str">
         <f>"&lt;!-- DataTables CSS --&gt;&lt;link rel='stylesheet' type='text/css' href='https://cdn.datatables.net/v/bs4/jq-3.6.0/jszip-2.5.0/dt-1.13.2/b-2.3.4/b-colvis-2.3.4/b-html5-2.3.4/b-print-2.3.4/r-2.4.0/datatables.min.css'/&gt;"&amp;"&lt;table id='mydatatable' class='table table-striped table-bordered hover display compact sm order-column'style='width:100%'&gt;&lt;thead class='table-info'&gt;&lt;tr&gt;"&amp;_xlfn.TEXTJOIN(,,Tabelle1[th-dt])&amp;"&lt;th data-priority='1' class='text-center'&gt;&lt;i class='fa  fa-bars' aria-hidden='true'&gt;&lt;/i&gt;&lt;/th&gt;&lt;/tr&gt;&lt;/thead&gt;"</f>
         <v>&lt;!-- DataTables CSS --&gt;&lt;link rel='stylesheet' type='text/css' href='https://cdn.datatables.net/v/bs4/jq-3.6.0/jszip-2.5.0/dt-1.13.2/b-2.3.4/b-colvis-2.3.4/b-html5-2.3.4/b-print-2.3.4/r-2.4.0/datatables.min.css'/&gt;&lt;table id='mydatatable' class='table table-striped table-bordered hover display compact sm order-column'style='width:100%'&gt;&lt;thead class='table-info'&gt;&lt;tr&gt;&lt;th data-priority='1' class='text-center'&gt;&lt;i class='fa  fa-bars' aria-hidden='true'&gt;&lt;/i&gt;&lt;/th&gt;&lt;/tr&gt;&lt;/thead&gt;</v>
       </c>
@@ -5569,7 +5596,7 @@
         <v>List template (Header)</v>
       </c>
       <c r="C7" s="5" t="str">
-        <f>IF(Settings!E8="Yes / Ja",C6,C5)</f>
+        <f>IF(Settings!$E$8="Yes / Ja",C6,C5)</f>
         <v>&lt;div class='table-responsive'&gt;&lt;table class='table table-bordered table-hover table-striped'&gt;&lt;thead&gt;&lt;tr class='fixieren'&gt;&lt;th class='text-center'&gt;&lt;i class='fa fa-bars' aria-hidden='true'&gt;&lt;/i&gt;&lt;/th&gt;&lt;/tr&gt;&lt;/thead&gt;</v>
       </c>
       <c r="D7" s="1" t="str">
@@ -5592,10 +5619,10 @@
       </c>
     </row>
     <row r="9" spans="2:4" s="1" customFormat="1" ht="20.05" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="5" t="str">
+      <c r="C9" s="43" t="str">
         <f>"&lt;/tbody&gt;&lt;/table&gt;&lt;/div&gt;"</f>
         <v>&lt;/tbody&gt;&lt;/table&gt;&lt;/div&gt;</v>
       </c>
@@ -5605,12 +5632,12 @@
       </c>
     </row>
     <row r="10" spans="2:4" s="1" customFormat="1" ht="20.05" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="5" t="str">
-        <f>"&lt;/tbody&gt; &lt;/table&gt; &lt;!-- Optional JavaScript --&gt; &lt;!-- jQuery first, then Popper.js, then Bootstrap JS --&gt; &lt;script src='https://code.jquery.com/jquery-3.3.1.slim.min.js'"&amp;" integrity='sha384-q8i/X+965DzO0rT7abK41JStQIAqVgRVzpbzo5smXKp4YfRvH+8abtTE1Pi6jizo' crossorigin='anonymous'&gt;&lt;/script&gt; &lt;script src='https://cdnjs.cloudflare.com/ajax/libs/popper.js/1.14.7/umd/popper.min.js'"&amp;" integrity='sha384-UO2eT0CpHqdSJQ6hJty5KVphtPhzWj9WO1clHTMGa3JDZwrnQq4sF86dIHNDz0W1' crossorigin='anonymous'&gt;&lt;/script&gt; &lt;!-- DataTables JavaScript --&gt;"&amp;" &lt;script type='text/javascript' src='https://cdnjs.cloudflare.com/ajax/libs/pdfmake/0.1.36/pdfmake.min.js'&gt;&lt;/script&gt; &lt;script type='text/javascript' src='https://cdnjs.cloudflare.com/ajax/libs/pdfmake/0.1.36/vfs_fonts.js'&gt;&lt;/script&gt;"&amp;" &lt;script type='text/javascript' src='https://cdn.datatables.net/v/bs4/jq-3.6.0/jszip-2.5.0/dt-1.13.2/b-2.3.4/b-colvis-2.3.4/b-html5-2.3.4/b-print-2.3.4/r-2.4.0/datatables.min.js'&gt;&lt;/script&gt;"&amp;" &lt;script&gt; $(document).ready(function () { $('#mydatatable').DataTable({ responsive: true, paging: false, autoWidth: false, info: false, dom: 'frtipB',"&amp;" buttons: [{ extend: 'copy', text: '"&amp;IF(Settings!$E$7="EN","Copy","Kopieren")&amp;"', className: 'btn btn-secondary mx-1' }, { extend: 'excel', text: 'Excel', className: 'btn btn-secondary mr-1' }, "&amp;"{ extend: 'csvHtml5', text: 'CSV', fieldBoundary: '', fieldSeparator: ';', className: 'btn btn-secondary mr-1' }, "&amp;"{ extend: 'pdf', text: 'PDF', className: 'btn btn-secondary mr-1' }, { extend: 'print', text: '"&amp;IF(Settings!$E$7="EN","Print","Drucken")&amp;"', className: 'btn btn-secondary mr-1' }] }); }); &lt;/script&gt;"&amp;" &lt;style&gt; div.dt-buttons { float: right; } &lt;/style&gt;"</f>
-        <v>&lt;/tbody&gt; &lt;/table&gt; &lt;!-- Optional JavaScript --&gt; &lt;!-- jQuery first, then Popper.js, then Bootstrap JS --&gt; &lt;script src='https://code.jquery.com/jquery-3.3.1.slim.min.js' integrity='sha384-q8i/X+965DzO0rT7abK41JStQIAqVgRVzpbzo5smXKp4YfRvH+8abtTE1Pi6jizo' crossorigin='anonymous'&gt;&lt;/script&gt; &lt;script src='https://cdnjs.cloudflare.com/ajax/libs/popper.js/1.14.7/umd/popper.min.js' integrity='sha384-UO2eT0CpHqdSJQ6hJty5KVphtPhzWj9WO1clHTMGa3JDZwrnQq4sF86dIHNDz0W1' crossorigin='anonymous'&gt;&lt;/script&gt; &lt;!-- DataTables JavaScript --&gt; &lt;script type='text/javascript' src='https://cdnjs.cloudflare.com/ajax/libs/pdfmake/0.1.36/pdfmake.min.js'&gt;&lt;/script&gt; &lt;script type='text/javascript' src='https://cdnjs.cloudflare.com/ajax/libs/pdfmake/0.1.36/vfs_fonts.js'&gt;&lt;/script&gt; &lt;script type='text/javascript' src='https://cdn.datatables.net/v/bs4/jq-3.6.0/jszip-2.5.0/dt-1.13.2/b-2.3.4/b-colvis-2.3.4/b-html5-2.3.4/b-print-2.3.4/r-2.4.0/datatables.min.js'&gt;&lt;/script&gt; &lt;script&gt; $(document).ready(function () { $('#mydatatable').DataTable({ responsive: true, paging: false, autoWidth: false, info: false, dom: 'frtipB', buttons: [{ extend: 'copy', text: 'Copy', className: 'btn btn-secondary mx-1' }, { extend: 'excel', text: 'Excel', className: 'btn btn-secondary mr-1' }, { extend: 'csvHtml5', text: 'CSV', fieldBoundary: '', fieldSeparator: ';', className: 'btn btn-secondary mr-1' }, { extend: 'pdf', text: 'PDF', className: 'btn btn-secondary mr-1' }, { extend: 'print', text: 'Print', className: 'btn btn-secondary mr-1' }] }); }); &lt;/script&gt; &lt;style&gt; div.dt-buttons { float: right; } &lt;/style&gt;</v>
+      <c r="C10" s="43" t="str">
+        <f>"&lt;/tbody&gt; &lt;/table&gt; &lt;!-- Optional JavaScript --&gt; &lt;!-- jQuery first, then Popper.js, then Bootstrap JS --&gt; &lt;script src='https://code.jquery.com/jquery-3.3.1.slim.min.js'"&amp;" integrity='sha384-q8i/X+965DzO0rT7abK41JStQIAqVgRVzpbzo5smXKp4YfRvH+8abtTE1Pi6jizo' crossorigin='anonymous'&gt;&lt;/script&gt; &lt;script src='https://cdnjs.cloudflare.com/ajax/libs/popper.js/1.14.7/umd/popper.min.js'"&amp;" integrity='sha384-UO2eT0CpHqdSJQ6hJty5KVphtPhzWj9WO1clHTMGa3JDZwrnQq4sF86dIHNDz0W1' crossorigin='anonymous'&gt;&lt;/script&gt; &lt;!-- DataTables JavaScript --&gt;"&amp;" &lt;script type='text/javascript' src='https://cdnjs.cloudflare.com/ajax/libs/pdfmake/0.1.36/pdfmake.min.js'&gt;&lt;/script&gt; &lt;script type='text/javascript' src='https://cdnjs.cloudflare.com/ajax/libs/pdfmake/0.1.36/vfs_fonts.js'&gt;&lt;/script&gt;"&amp;" &lt;script type='text/javascript' src='https://cdn.datatables.net/v/bs4/jq-3.6.0/jszip-2.5.0/dt-1.13.2/b-2.3.4/b-colvis-2.3.4/b-html5-2.3.4/b-print-2.3.4/r-2.4.0/datatables.min.js'&gt;&lt;/script&gt;"&amp;" &lt;script&gt; $(document).ready(function () { $('#mydatatable').DataTable({ responsive: true, paging: false, autoWidth: false, info: false, dom: 'frtipB',"&amp;" buttons: [{ extend: 'copy', text: '"&amp;IF(Settings!$E$7="EN","Copy","Kopieren")&amp;"', className: 'btn btn-secondary mx-1 mb-1' }, { extend: 'excel', text: 'Excel', className: 'btn btn-secondary mr-1 mb-1' }, "&amp;"{ extend: 'csvHtml5', text: 'CSV', fieldBoundary: '', fieldSeparator: ';', className: 'btn btn-secondary mr-1 mb-1' }, "&amp;"{ extend: 'pdf', text: 'PDF', className: 'btn btn-secondary mr-1 mb-1' }, { extend: 'print', text: '"&amp;IF(Settings!$E$7="EN","Print","Drucken")&amp;"', className: 'btn btn-secondary mr-1 mb-1' }]"&amp;IF(Settings!$E$7="EN","",", oLanguage: { 'sSearch': 'Suche' }")&amp;" }); }); &lt;/script&gt;"&amp;" &lt;style&gt; div.dt-buttons { float: right; } &lt;/style&gt;"</f>
+        <v>&lt;/tbody&gt; &lt;/table&gt; &lt;!-- Optional JavaScript --&gt; &lt;!-- jQuery first, then Popper.js, then Bootstrap JS --&gt; &lt;script src='https://code.jquery.com/jquery-3.3.1.slim.min.js' integrity='sha384-q8i/X+965DzO0rT7abK41JStQIAqVgRVzpbzo5smXKp4YfRvH+8abtTE1Pi6jizo' crossorigin='anonymous'&gt;&lt;/script&gt; &lt;script src='https://cdnjs.cloudflare.com/ajax/libs/popper.js/1.14.7/umd/popper.min.js' integrity='sha384-UO2eT0CpHqdSJQ6hJty5KVphtPhzWj9WO1clHTMGa3JDZwrnQq4sF86dIHNDz0W1' crossorigin='anonymous'&gt;&lt;/script&gt; &lt;!-- DataTables JavaScript --&gt; &lt;script type='text/javascript' src='https://cdnjs.cloudflare.com/ajax/libs/pdfmake/0.1.36/pdfmake.min.js'&gt;&lt;/script&gt; &lt;script type='text/javascript' src='https://cdnjs.cloudflare.com/ajax/libs/pdfmake/0.1.36/vfs_fonts.js'&gt;&lt;/script&gt; &lt;script type='text/javascript' src='https://cdn.datatables.net/v/bs4/jq-3.6.0/jszip-2.5.0/dt-1.13.2/b-2.3.4/b-colvis-2.3.4/b-html5-2.3.4/b-print-2.3.4/r-2.4.0/datatables.min.js'&gt;&lt;/script&gt; &lt;script&gt; $(document).ready(function () { $('#mydatatable').DataTable({ responsive: true, paging: false, autoWidth: false, info: false, dom: 'frtipB', buttons: [{ extend: 'copy', text: 'Copy', className: 'btn btn-secondary mx-1 mb-1' }, { extend: 'excel', text: 'Excel', className: 'btn btn-secondary mr-1 mb-1' }, { extend: 'csvHtml5', text: 'CSV', fieldBoundary: '', fieldSeparator: ';', className: 'btn btn-secondary mr-1 mb-1' }, { extend: 'pdf', text: 'PDF', className: 'btn btn-secondary mr-1 mb-1' }, { extend: 'print', text: 'Print', className: 'btn btn-secondary mr-1 mb-1' }] }); }); &lt;/script&gt; &lt;style&gt; div.dt-buttons { float: right; } &lt;/style&gt;</v>
       </c>
       <c r="D10" s="1" t="str">
         <f>""</f>
@@ -5623,7 +5650,7 @@
         <v>List template (Footer)</v>
       </c>
       <c r="C11" s="5" t="str">
-        <f>IF(Settings!E8="Yes / Ja",C10,C9)</f>
+        <f>IF(Settings!$E$8="Yes / Ja",C10,C9)</f>
         <v>&lt;/tbody&gt;&lt;/table&gt;&lt;/div&gt;</v>
       </c>
       <c r="D11" s="1" t="str">
@@ -5632,64 +5659,89 @@
       </c>
     </row>
     <row r="12" spans="2:4" s="1" customFormat="1" ht="20.05" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="2" t="str">
+      <c r="B12" s="42" t="str">
         <f>IF(Settings!$E$7="EN","Advanced search template","Erweiterten Suche")</f>
         <v>Advanced search template</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="1" t="str">
         <f>""</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="2:4" s="1" customFormat="1" ht="20.05" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="2" t="str">
+      <c r="B13" s="42" t="str">
         <f>IF(Settings!$E$7="EN","RSS template","RSS-Feed")</f>
         <v>RSS template</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="43"/>
       <c r="D13" s="1" t="str">
         <f>""</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="2:4" s="1" customFormat="1" ht="20.05" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="43"/>
       <c r="D14" s="1" t="str">
         <f>""</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="2:4" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="2" t="str">
+    <row r="15" spans="2:4" s="1" customFormat="1" ht="20.05" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="43" t="str">
+        <f>"/* CSS for dropdown-menu in list view */ #region-main .dropdown-menu .icon.fa.fa-search-plus.fa-fw::after { content: ' "&amp;IF(Settings!$E$7="EN", "View single", "Einzelansicht")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-cog.fa-fw::after { content: ' "&amp;IF(Settings!$E$7="EN", "Edit", "Bearbeiten")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-pencil.fa-fw::after { content: ' "&amp;IF(Settings!$E$7="EN", "Edit", "Bearbeiten")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-trash.fa-fw::after { content: ' "&amp;IF(Settings!$E$7="EN", "Delete", "Löschen")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-ban.fa-fw.iconsmall::after { content: ' "&amp;IF(Settings!$E$7="EN", "Do not approve", "Nicht freigeben")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-thumbs-up.fa-fw.iconsmall::after { content: ' "&amp;IF(Settings!$E$7="EN", "Approve", "Zulassen")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-item:empty { display: none; } "&amp;" .dropdown-item:not(.text-truncate) { white-space: nowrap; } "&amp;" /* Button color */ #region-main .btn-outline-primary { color: "&amp;Settings!E24&amp;" !important; border-color: "&amp;Settings!E24&amp;" !important; } "&amp;" #region-main .btn-outline-primary:hover, #region-main .btn-outline-primary:active, #region-main .btn-outline-primary:focus { background-color: "&amp;Settings!E24&amp;" !important; color: #ffffff !important; } "&amp;" /* Header new entry */ #page-mod-data-edit #region-main .card-header { background-color: "&amp;Settings!E12&amp;" !important; } "&amp;" #page-mod-data-edit #region-main .card-header h4 { color: "&amp;Settings!E13&amp;"; } #region-main .dropdown-item:hover { background-color: "&amp;Settings!E24&amp;"; } "&amp;" /* Header color single view */ #page-mod-data-view #region-main .card-header { background-color: "&amp;Settings!E17&amp;" !important; } "&amp;" #page-mod-data-view #region-main .card-header h4 { color: "&amp;Settings!E18&amp;"; } "&amp;" /* Edit Icons color and bigger size */ #region-main .card-header .icon { color: "&amp;Settings!E19&amp;"; font-size: 20px; width: 20px; height: 20px; } "&amp;" /* Style of table header in list view */ #region-main th { background-color: "&amp;Settings!E22&amp;"; color: "&amp;Settings!E23&amp;"; }"&amp;IF(Settings!$E$8="Yes / Ja","#region-main:has(.nav-tabs &gt; .nav-item:first-of-type &gt; .nav-link.active) .datapreferences { display: none; } #region-main &gt; div[role=main] &gt; br:first-of-type { display:none }","")</f>
+        <v>/* CSS for dropdown-menu in list view */ #region-main .dropdown-menu .icon.fa.fa-search-plus.fa-fw::after { content: ' View single'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-cog.fa-fw::after { content: ' Edit'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-pencil.fa-fw::after { content: ' Edit'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-trash.fa-fw::after { content: ' Delete'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-ban.fa-fw.iconsmall::after { content: ' Do not approve'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-thumbs-up.fa-fw.iconsmall::after { content: ' Approve'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-item:empty { display: none; }  .dropdown-item:not(.text-truncate) { white-space: nowrap; }  /* Button color */ #region-main .btn-outline-primary { color: #008196 !important; border-color: #008196 !important; }  #region-main .btn-outline-primary:hover, #region-main .btn-outline-primary:active, #region-main .btn-outline-primary:focus { background-color: #008196 !important; color: #ffffff !important; }  /* Header new entry */ #page-mod-data-edit #region-main .card-header { background-color: #008196 !important; }  #page-mod-data-edit #region-main .card-header h4 { color: #ffffff; } #region-main .dropdown-item:hover { background-color: #008196; }  /* Header color single view */ #page-mod-data-view #region-main .card-header { background-color: #008196 !important; }  #page-mod-data-view #region-main .card-header h4 { color: #ffffff; }  /* Edit Icons color and bigger size */ #region-main .card-header .icon { color: #ffffff; font-size: 20px; width: 20px; height: 20px; }  /* Style of table header in list view */ #region-main th { background-color: #008196; color: #ffffff; }</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="2:4" s="1" customFormat="1" ht="20.05" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="2:4" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="2" t="str">
         <f>IF(Settings!$E$7="EN","CSS template","CSS-Vorlage")</f>
         <v>CSS template</v>
       </c>
-      <c r="C15" s="5" t="str">
-        <f>"/* CSS for dropdown-menu in list view */ #region-main .dropdown-menu .icon.fa.fa-search-plus.fa-fw::after { content: ' "&amp;IF(Settings!$E$7="EN", "View single", "Einzelansicht")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } " &amp;" #region-main .dropdown-menu .icon.fa.fa-cog.fa-fw::after { content: ' "&amp;IF(Settings!$E$7="EN", "Edit", "Bearbeiten")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } " &amp;" #region-main .dropdown-menu .icon.fa.fa-pencil.fa-fw::after { content: ' "&amp;IF(Settings!$E$7="EN", "Edit", "Bearbeiten")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } " &amp;" #region-main .dropdown-menu .icon.fa.fa-trash.fa-fw::after { content: ' "&amp;IF(Settings!$E$7="EN", "Delete", "Löschen")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } " &amp;" #region-main .dropdown-menu .icon.fa.fa-ban.fa-fw.iconsmall::after { content: ' "&amp;IF(Settings!$E$7="EN", "Do not approve", "Nicht freigeben")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } " &amp;" #region-main .dropdown-menu .icon.fa.fa-thumbs-up.fa-fw.iconsmall::after { content: ' "&amp;IF(Settings!$E$7="EN", "Approve", "Zulassen")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } " &amp;" #region-main .dropdown-item:empty { display: none; } " &amp;" .dropdown-item:not(.text-truncate) { white-space: nowrap; } " &amp;" /* Headlines */ #region-main h4 { margin-top: 1em; margin-bottom: 0.3em; font-weight: 300; } " &amp;" /* responsive images */ #page-mod-data-view img.list_picture { max-width: 100%; } " &amp;" /* Button color */ #region-main .btn-outline-primary { color: "&amp;Settings!E24&amp;" !important; border-color: "&amp;Settings!E24&amp;" !important; } " &amp;" #region-main .btn-outline-primary:hover, #region-main .btn-outline-primary:active, #region-main .btn-outline-primary:focus { background-color: "&amp;Settings!E24&amp;" !important; color: #ffffff !important; } " &amp;" #region-main .dropdown-item:hover .icon { color: #fff; } " &amp;" /* Header new entry */ #page-mod-data-edit #region-main .card-header { background-color: "&amp;Settings!E12&amp;" !important; } " &amp;" #page-mod-data-edit #region-main .card-header h4 { color: "&amp;Settings!E13&amp;"; } #region-main .dropdown-item:hover { background-color: "&amp;Settings!E24&amp;"; } " &amp;" /* Headlines formfields */ #region-main h6 { font-size: 1.2em; font-weight: 400; margin-bottom: 0.7em; } " &amp;" /* margin after Atto editor */ .mod-data-input:has(.editor_atto_wrap) { margin-bottom: 20px; } " &amp;" /* Header color single view */ #page-mod-data-view #region-main .card-header { background-color: "&amp;Settings!E17&amp;" !important; } " &amp;" #page-mod-data-view #region-main .card-header h4 { color: "&amp;Settings!E18&amp;"; } " &amp;" /* Edit Icons color and bigger size */ #region-main .card-header .icon { color: "&amp;Settings!E19&amp;"; font-size: 20px; width: 20px; height: 20px; } " &amp;" /* Icons of dropdown */ #region-main .dropdown-item .icon { font-size: 16px; width: 16px; height: 16px; } " &amp;" /* Style of table header in list view */ #region-main th { background-color: "&amp;Settings!E22&amp;"; color: "&amp;Settings!E23&amp;"; }"</f>
-        <v>/* CSS for dropdown-menu in list view */ #region-main .dropdown-menu .icon.fa.fa-search-plus.fa-fw::after { content: ' View single'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-cog.fa-fw::after { content: ' Edit'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-pencil.fa-fw::after { content: ' Edit'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-trash.fa-fw::after { content: ' Delete'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-ban.fa-fw.iconsmall::after { content: ' Do not approve'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-thumbs-up.fa-fw.iconsmall::after { content: ' Approve'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-item:empty { display: none; }  .dropdown-item:not(.text-truncate) { white-space: nowrap; }  /* Headlines */ #region-main h4 { margin-top: 1em; margin-bottom: 0.3em; font-weight: 300; }  /* responsive images */ #page-mod-data-view img.list_picture { max-width: 100%; }  /* Button color */ #region-main .btn-outline-primary { color: #008196 !important; border-color: #008196 !important; }  #region-main .btn-outline-primary:hover, #region-main .btn-outline-primary:active, #region-main .btn-outline-primary:focus { background-color: #008196 !important; color: #ffffff !important; }  #region-main .dropdown-item:hover .icon { color: #fff; }  /* Header new entry */ #page-mod-data-edit #region-main .card-header { background-color: #008196 !important; }  #page-mod-data-edit #region-main .card-header h4 { color: #ffffff; } #region-main .dropdown-item:hover { background-color: #008196; }  /* Headlines formfields */ #region-main h6 { font-size: 1.2em; font-weight: 400; margin-bottom: 0.7em; }  /* margin after Atto editor */ .mod-data-input:has(.editor_atto_wrap) { margin-bottom: 20px; }  /* Header color single view */ #page-mod-data-view #region-main .card-header { background-color: #008196 !important; }  #page-mod-data-view #region-main .card-header h4 { color: #ffffff; }  /* Edit Icons color and bigger size */ #region-main .card-header .icon { color: #ffffff; font-size: 20px; width: 20px; height: 20px; }  /* Icons of dropdown */ #region-main .dropdown-item .icon { font-size: 16px; width: 16px; height: 16px; }  /* Style of table header in list view */ #region-main th { background-color: #008196; color: #ffffff; }</v>
-      </c>
-      <c r="D15" s="1" t="str">
+      <c r="C17" s="5" t="str">
+        <f>C15&amp;C16</f>
+        <v>/* CSS for dropdown-menu in list view */ #region-main .dropdown-menu .icon.fa.fa-search-plus.fa-fw::after { content: ' View single'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-cog.fa-fw::after { content: ' Edit'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-pencil.fa-fw::after { content: ' Edit'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-trash.fa-fw::after { content: ' Delete'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-ban.fa-fw.iconsmall::after { content: ' Do not approve'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-thumbs-up.fa-fw.iconsmall::after { content: ' Approve'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-item:empty { display: none; }  .dropdown-item:not(.text-truncate) { white-space: nowrap; }  /* Button color */ #region-main .btn-outline-primary { color: #008196 !important; border-color: #008196 !important; }  #region-main .btn-outline-primary:hover, #region-main .btn-outline-primary:active, #region-main .btn-outline-primary:focus { background-color: #008196 !important; color: #ffffff !important; }  /* Header new entry */ #page-mod-data-edit #region-main .card-header { background-color: #008196 !important; }  #page-mod-data-edit #region-main .card-header h4 { color: #ffffff; } #region-main .dropdown-item:hover { background-color: #008196; }  /* Header color single view */ #page-mod-data-view #region-main .card-header { background-color: #008196 !important; }  #page-mod-data-view #region-main .card-header h4 { color: #ffffff; }  /* Edit Icons color and bigger size */ #region-main .card-header .icon { color: #ffffff; font-size: 20px; width: 20px; height: 20px; }  /* Style of table header in list view */ #region-main th { background-color: #008196; color: #ffffff; }/* Headlines */ #region-main h4 { margin-top: 1em; margin-bottom: 0.3em; font-weight: 300; } /* Approval status on single view */ .single-badge { font-weight: 400; margin-bottom: -1.25rem; } /* Card border color */ #region-main .card { border-color: #c8ccd0; } /* responsive images */ #page-mod-data-view img.list_picture { max-width: 100%; } #region-main .dropdown-item:hover .icon { color: #fff; } /* Headlines formfields */ #region-main h6 { font-size: 1.2em; font-weight: 400; margin-bottom: 0.7em; } /* margin after Atto editor */ .mod-data-input:has(.editor_atto_wrap) { margin-bottom: 20px; } /* Icons of dropdown */ #region-main .dropdown-item .icon { font-size: 16px; width: 16px; height: 16px; } /* Rows are yellow if not approved + darker on hover */ table tbody tr:nth-child(2n+1):has(span.approve) { background-color: #fff3c0!important; } table tbody tr:nth-child(2n):has(span.approve) { background-color: #fff8d9!important; } table tbody tr:has(span.approve):hover { background-color: #ffeea6!important; } /* Rows are yellow if not approved (dataTables) */ table.dataTable.table&gt;tbody&gt;tr:has(span.approve)&gt;* { box-shadow: none; } /* Abstand unter dataTable */ #mydatatable { margin-bottom: 15px!important; } /* Button Abstand korrigieren */ input[value="Ins Portfolio exportieren"] { margin-top: 0.25rem; }​/* Druckversion */ @media print { #page-header, #page-footer, .intro, .nav-tabs, .datapreferences, .btn-secondary, i.icon, .comment-area, .pagination, input, .footnote, .activity-navigation { display: none; } }</v>
+      </c>
+      <c r="D17" s="1" t="str">
         <f>""</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="2:4" s="1" customFormat="1" ht="20.05" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="2" t="str">
+    <row r="18" spans="2:4" s="1" customFormat="1" ht="20.05" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="42" t="str">
         <f>IF(Settings!$E$7="EN","Javascript template","JavaScript für Vorlagen")</f>
         <v>Javascript template</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="1" t="str">
+      <c r="C18" s="43"/>
+      <c r="D18" s="1" t="str">
         <f>""</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="4:4" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D17" s="1" t="str">
+    <row r="19" spans="2:4" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D19" s="1" t="str">
         <f>""</f>
         <v/>
       </c>
@@ -5699,7 +5751,7 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C4:C7 C11:C14 C9" unlockedFormula="1"/>
+    <ignoredError sqref="C5:C6 C12:C14 C9" unlockedFormula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Template-Generator_for_Moodle_Databases.xlsx
+++ b/Template-Generator_for_Moodle_Databases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aa2fd555716d4621/Schule/Schule/Medien/Moodle/Vorlagen/Datenbank/Git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1211" documentId="13_ncr:1_{7DEECC36-6B18-4B7F-96A7-5897EB976A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4140217-3619-4A9F-AB5A-AF20EBF1A9A3}"/>
+  <xr:revisionPtr revIDLastSave="1251" documentId="13_ncr:1_{7DEECC36-6B18-4B7F-96A7-5897EB976A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{456CCD01-CFA7-4E56-92D5-8D409F1B2CED}"/>
   <bookViews>
     <workbookView xWindow="32811" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{B7FF9584-A0C9-4520-8363-27EB39F90318}"/>
   </bookViews>
@@ -669,6 +669,45 @@
   </cellStyles>
   <dxfs count="21">
     <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF008196"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -958,45 +997,6 @@
       </border>
       <protection locked="1" hidden="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF008196"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1020,34 +1020,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E58CC641-CF45-4CFF-8CC1-2ECB18EEAC18}" name="Tabelle1" displayName="Tabelle1" ref="B2:L100" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E58CC641-CF45-4CFF-8CC1-2ECB18EEAC18}" name="Tabelle1" displayName="Tabelle1" ref="B2:L100" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17" totalsRowBorderDxfId="16">
   <autoFilter ref="B2:L100" xr:uid="{E58CC641-CF45-4CFF-8CC1-2ECB18EEAC18}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{2CAD02C3-E989-47F2-ACF1-05D86CC61050}" name="Moodle field / Feld" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{B960D793-A4EA-4541-8B7A-84581F4C723A}" name="fiel#id" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{2CAD02C3-E989-47F2-ACF1-05D86CC61050}" name="Moodle field / Feld" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{B960D793-A4EA-4541-8B7A-84581F4C723A}" name="fiel#id" dataDxfId="14">
       <calculatedColumnFormula>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B3&amp;"]]")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{DCDC97CD-02E6-4CE9-9F45-005A62064FC9}" name="Headline / Überschriften" dataDxfId="8">
+    <tableColumn id="2" xr3:uid="{DCDC97CD-02E6-4CE9-9F45-005A62064FC9}" name="Headline / Überschriften" dataDxfId="13">
       <calculatedColumnFormula>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{14D5DAFB-44D4-41AB-99EC-75E1A211501C}" name="Custom Headline / Eigene Überschrift" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{73C1862E-07BA-4DA4-A5A7-3EE3F8645709}" name="Datatable-Priority / Priorität" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{BED9F1AF-933E-484D-B943-F21888931742}" name="divs" dataDxfId="5">
+    <tableColumn id="3" xr3:uid="{14D5DAFB-44D4-41AB-99EC-75E1A211501C}" name="Custom Headline / Eigene Überschrift" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{73C1862E-07BA-4DA4-A5A7-3EE3F8645709}" name="Datatable-Priority / Priorität" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{BED9F1AF-933E-484D-B943-F21888931742}" name="divs" dataDxfId="10">
       <calculatedColumnFormula>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D3&amp;"&lt;/h4&gt;"&amp;C3&amp;"&lt;br&gt;&lt;/div&gt;"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F65B0FC7-4D25-4967-9C79-E815C7C09652}" name="th" dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{F65B0FC7-4D25-4967-9C79-E815C7C09652}" name="th" dataDxfId="9">
       <calculatedColumnFormula>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{7F22C2F6-82A9-4292-8453-565D3776B203}" name="th-dt" dataDxfId="3">
+    <tableColumn id="11" xr3:uid="{7F22C2F6-82A9-4292-8453-565D3776B203}" name="th-dt" dataDxfId="8">
       <calculatedColumnFormula>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3B5DCC51-0242-46B9-A6E0-0032E39596DB}" name="td" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{3B5DCC51-0242-46B9-A6E0-0032E39596DB}" name="td" dataDxfId="7">
       <calculatedColumnFormula>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{73A94E74-D092-4EB3-B6B4-F3F1F171A2EE}" name="p" dataDxfId="1">
+    <tableColumn id="8" xr3:uid="{73A94E74-D092-4EB3-B6B4-F3F1F171A2EE}" name="p" dataDxfId="6">
       <calculatedColumnFormula>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B03A9011-0203-4333-A7A9-6BF47E4ED1DD}" name="rss" dataDxfId="0">
+    <tableColumn id="9" xr3:uid="{B03A9011-0203-4333-A7A9-6BF47E4ED1DD}" name="rss" dataDxfId="5">
       <calculatedColumnFormula>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5445,15 +5445,15 @@
   <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" selectLockedCells="1" sort="0"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B3:C100">
-    <cfRule type="expression" dxfId="20" priority="10">
+    <cfRule type="expression" dxfId="4" priority="10">
       <formula>$C3="[[]]"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B100">
-    <cfRule type="duplicateValues" dxfId="19" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E5 D6 D7:E100">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"&lt;----- Add field or select a ##tag##"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5513,7 +5513,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBDA18EC-E1B4-42CD-BFA1-2278BF1C1F76}">
-  <dimension ref="B1:D19"/>
+  <dimension ref="B1:D20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -5564,115 +5564,118 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="2:4" s="1" customFormat="1" ht="20.05" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="42" t="s">
+    <row r="5" spans="2:4" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="2" t="str">
+        <f>IF(Settings!$E$7="EN","Advanced search template","Vorlage zur erweiterten Suche")</f>
+        <v>Advanced search template</v>
+      </c>
+      <c r="C5" s="5" t="str">
+        <f>"&lt;style&gt; .boxaligncenter { width: 100%; } select { margin-top: 0.5rem; margin-bottom: 1rem; } input { margin-top: 0.5rem; } #region-main h4 { margin-top: 0!important; margin-bottom: 0!important; } &lt;/style&gt;"&amp;"&lt;div class='container'&gt;&lt;div class='card mb-4 rounded'&gt;&lt;div class='card-header bg-info'&gt;&lt;h4 class='m-2'&gt;"&amp;IF(Settings!$E$7="EN", "Search", "Suche")&amp;"&lt;/h4&gt;&lt;/div&gt;&lt;div class='card-body pb-0 pt-4 m-0'&gt;&lt;div class='card-text m-0 p-0'&gt;"&amp;_xlfn.TEXTJOIN(,TRUE,Tabelle1[divs])&amp;"&lt;br&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;hr&gt;"</f>
+        <v>&lt;style&gt; .boxaligncenter { width: 100%; } select { margin-top: 0.5rem; margin-bottom: 1rem; } input { margin-top: 0.5rem; } #region-main h4 { margin-top: 0!important; margin-bottom: 0!important; } &lt;/style&gt;&lt;div class='container'&gt;&lt;div class='card mb-4 rounded'&gt;&lt;div class='card-header bg-info'&gt;&lt;h4 class='m-2'&gt;Search&lt;/h4&gt;&lt;/div&gt;&lt;div class='card-body pb-0 pt-4 m-0'&gt;&lt;div class='card-text m-0 p-0'&gt;&lt;br&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;hr&gt;</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="2:4" s="1" customFormat="1" ht="20.05" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="43" t="str">
+      <c r="C6" s="43" t="str">
         <f>"&lt;div class='table-responsive'&gt;&lt;table class='table table-bordered table-hover table-striped'&gt;&lt;thead&gt;&lt;tr class='fixieren'&gt;"&amp;_xlfn.TEXTJOIN(,TRUE,Tabelle1[th])&amp;"&lt;th class='text-center'&gt;&lt;i class='fa fa-bars' aria-hidden='true'&gt;&lt;/i&gt;&lt;/th&gt;&lt;/tr&gt;&lt;/thead&gt;"</f>
         <v>&lt;div class='table-responsive'&gt;&lt;table class='table table-bordered table-hover table-striped'&gt;&lt;thead&gt;&lt;tr class='fixieren'&gt;&lt;th class='text-center'&gt;&lt;i class='fa fa-bars' aria-hidden='true'&gt;&lt;/i&gt;&lt;/th&gt;&lt;/tr&gt;&lt;/thead&gt;</v>
       </c>
-      <c r="D5" s="1" t="str">
+      <c r="D6" s="1" t="str">
         <f>""</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="2:4" s="1" customFormat="1" ht="20.05" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="42" t="s">
+    <row r="7" spans="2:4" s="1" customFormat="1" ht="20.05" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="43" t="str">
+      <c r="C7" s="43" t="str">
         <f>"&lt;!-- DataTables CSS --&gt;&lt;link rel='stylesheet' type='text/css' href='https://cdn.datatables.net/v/bs4/jq-3.6.0/jszip-2.5.0/dt-1.13.2/b-2.3.4/b-colvis-2.3.4/b-html5-2.3.4/b-print-2.3.4/r-2.4.0/datatables.min.css'/&gt;"&amp;"&lt;table id='mydatatable' class='table table-striped table-bordered hover display compact sm order-column'style='width:100%'&gt;&lt;thead class='table-info'&gt;&lt;tr&gt;"&amp;_xlfn.TEXTJOIN(,,Tabelle1[th-dt])&amp;"&lt;th data-priority='1' class='text-center'&gt;&lt;i class='fa  fa-bars' aria-hidden='true'&gt;&lt;/i&gt;&lt;/th&gt;&lt;/tr&gt;&lt;/thead&gt;"</f>
         <v>&lt;!-- DataTables CSS --&gt;&lt;link rel='stylesheet' type='text/css' href='https://cdn.datatables.net/v/bs4/jq-3.6.0/jszip-2.5.0/dt-1.13.2/b-2.3.4/b-colvis-2.3.4/b-html5-2.3.4/b-print-2.3.4/r-2.4.0/datatables.min.css'/&gt;&lt;table id='mydatatable' class='table table-striped table-bordered hover display compact sm order-column'style='width:100%'&gt;&lt;thead class='table-info'&gt;&lt;tr&gt;&lt;th data-priority='1' class='text-center'&gt;&lt;i class='fa  fa-bars' aria-hidden='true'&gt;&lt;/i&gt;&lt;/th&gt;&lt;/tr&gt;&lt;/thead&gt;</v>
       </c>
-      <c r="D6" s="1" t="str">
+      <c r="D7" s="1" t="str">
         <f>""</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:4" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="2" t="str">
+    <row r="8" spans="2:4" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="2" t="str">
         <f>IF(Settings!$E$7="EN","List template (Header)","Liste (Kopfzeile)")</f>
         <v>List template (Header)</v>
       </c>
-      <c r="C7" s="5" t="str">
-        <f>IF(Settings!$E$8="Yes / Ja",C6,C5)</f>
+      <c r="C8" s="5" t="str">
+        <f>IF(Settings!$E$8="Yes / Ja",C7,C6)</f>
         <v>&lt;div class='table-responsive'&gt;&lt;table class='table table-bordered table-hover table-striped'&gt;&lt;thead&gt;&lt;tr class='fixieren'&gt;&lt;th class='text-center'&gt;&lt;i class='fa fa-bars' aria-hidden='true'&gt;&lt;/i&gt;&lt;/th&gt;&lt;/tr&gt;&lt;/thead&gt;</v>
       </c>
-      <c r="D7" s="1" t="str">
+      <c r="D8" s="1" t="str">
         <f>""</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:4" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="2" t="str">
+    <row r="9" spans="2:4" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="2" t="str">
         <f>IF(Settings!$E$7="EN","List template (Repeated entry)","Liste (Wiederholter Eintrag)")</f>
         <v>List template (Repeated entry)</v>
       </c>
-      <c r="C8" s="5" t="str">
+      <c r="C9" s="5" t="str">
         <f>"&lt;tr&gt;"&amp;_xlfn.TEXTJOIN(,TRUE,Tabelle1[td])&amp;"&lt;td align='center'&gt;&lt;div class='dropdown'&gt;&lt;button class='btn btn-outline-primary dropdown-toggle' type='button' id='dropdownMenuButton' data-toggle='dropdown' aria-haspopup='true' aria-expanded='false'&gt;"&amp;IF(Settings!$E$7="EN","More","Mehr")&amp;"&lt;/button&gt;"&amp;"&lt;div class='dropdown-menu'&gt;&lt;div class='dropdown-item'&gt;##more##&lt;/div&gt;&lt;div class='dropdown-item'&gt;##edit##&lt;/div&gt;"&amp;"&lt;div class='dropdown-item'&gt;##approve####disapprove##&lt;/div&gt;&lt;div class='dropdown-divider'&gt;&lt;/div&gt;&lt;div class='dropdown-item'&gt;##delete##&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr&gt;&lt;td align='center'&gt;&lt;div class='dropdown'&gt;&lt;button class='btn btn-outline-primary dropdown-toggle' type='button' id='dropdownMenuButton' data-toggle='dropdown' aria-haspopup='true' aria-expanded='false'&gt;More&lt;/button&gt;&lt;div class='dropdown-menu'&gt;&lt;div class='dropdown-item'&gt;##more##&lt;/div&gt;&lt;div class='dropdown-item'&gt;##edit##&lt;/div&gt;&lt;div class='dropdown-item'&gt;##approve####disapprove##&lt;/div&gt;&lt;div class='dropdown-divider'&gt;&lt;/div&gt;&lt;div class='dropdown-item'&gt;##delete##&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-      <c r="D8" s="1" t="str">
+      <c r="D9" s="1" t="str">
         <f>""</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="2:4" s="1" customFormat="1" ht="20.05" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="42" t="s">
+    <row r="10" spans="2:4" s="1" customFormat="1" ht="20.05" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="43" t="str">
+      <c r="C10" s="43" t="str">
         <f>"&lt;/tbody&gt;&lt;/table&gt;&lt;/div&gt;"</f>
         <v>&lt;/tbody&gt;&lt;/table&gt;&lt;/div&gt;</v>
       </c>
-      <c r="D9" s="1" t="str">
+      <c r="D10" s="1" t="str">
         <f>""</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="2:4" s="1" customFormat="1" ht="20.05" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="42" t="s">
+    <row r="11" spans="2:4" s="1" customFormat="1" ht="20.05" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="43" t="str">
+      <c r="C11" s="43" t="str">
         <f>"&lt;/tbody&gt; &lt;/table&gt; &lt;!-- Optional JavaScript --&gt; &lt;!-- jQuery first, then Popper.js, then Bootstrap JS --&gt; &lt;script src='https://code.jquery.com/jquery-3.3.1.slim.min.js'"&amp;" integrity='sha384-q8i/X+965DzO0rT7abK41JStQIAqVgRVzpbzo5smXKp4YfRvH+8abtTE1Pi6jizo' crossorigin='anonymous'&gt;&lt;/script&gt; &lt;script src='https://cdnjs.cloudflare.com/ajax/libs/popper.js/1.14.7/umd/popper.min.js'"&amp;" integrity='sha384-UO2eT0CpHqdSJQ6hJty5KVphtPhzWj9WO1clHTMGa3JDZwrnQq4sF86dIHNDz0W1' crossorigin='anonymous'&gt;&lt;/script&gt; &lt;!-- DataTables JavaScript --&gt;"&amp;" &lt;script type='text/javascript' src='https://cdnjs.cloudflare.com/ajax/libs/pdfmake/0.1.36/pdfmake.min.js'&gt;&lt;/script&gt; &lt;script type='text/javascript' src='https://cdnjs.cloudflare.com/ajax/libs/pdfmake/0.1.36/vfs_fonts.js'&gt;&lt;/script&gt;"&amp;" &lt;script type='text/javascript' src='https://cdn.datatables.net/v/bs4/jq-3.6.0/jszip-2.5.0/dt-1.13.2/b-2.3.4/b-colvis-2.3.4/b-html5-2.3.4/b-print-2.3.4/r-2.4.0/datatables.min.js'&gt;&lt;/script&gt;"&amp;" &lt;script&gt; $(document).ready(function () { $('#mydatatable').DataTable({ responsive: true, paging: false, autoWidth: false, info: false, dom: 'frtipB',"&amp;" buttons: [{ extend: 'copy', text: '"&amp;IF(Settings!$E$7="EN","Copy","Kopieren")&amp;"', className: 'btn btn-secondary mx-1 mb-1' }, { extend: 'excel', text: 'Excel', className: 'btn btn-secondary mr-1 mb-1' }, "&amp;"{ extend: 'csvHtml5', text: 'CSV', fieldBoundary: '', fieldSeparator: ';', className: 'btn btn-secondary mr-1 mb-1' }, "&amp;"{ extend: 'pdf', text: 'PDF', className: 'btn btn-secondary mr-1 mb-1' }, { extend: 'print', text: '"&amp;IF(Settings!$E$7="EN","Print","Drucken")&amp;"', className: 'btn btn-secondary mr-1 mb-1' }]"&amp;IF(Settings!$E$7="EN","",", oLanguage: { 'sSearch': 'Suche' }")&amp;" }); }); &lt;/script&gt;"&amp;" &lt;style&gt; div.dt-buttons { float: right; } &lt;/style&gt;"</f>
         <v>&lt;/tbody&gt; &lt;/table&gt; &lt;!-- Optional JavaScript --&gt; &lt;!-- jQuery first, then Popper.js, then Bootstrap JS --&gt; &lt;script src='https://code.jquery.com/jquery-3.3.1.slim.min.js' integrity='sha384-q8i/X+965DzO0rT7abK41JStQIAqVgRVzpbzo5smXKp4YfRvH+8abtTE1Pi6jizo' crossorigin='anonymous'&gt;&lt;/script&gt; &lt;script src='https://cdnjs.cloudflare.com/ajax/libs/popper.js/1.14.7/umd/popper.min.js' integrity='sha384-UO2eT0CpHqdSJQ6hJty5KVphtPhzWj9WO1clHTMGa3JDZwrnQq4sF86dIHNDz0W1' crossorigin='anonymous'&gt;&lt;/script&gt; &lt;!-- DataTables JavaScript --&gt; &lt;script type='text/javascript' src='https://cdnjs.cloudflare.com/ajax/libs/pdfmake/0.1.36/pdfmake.min.js'&gt;&lt;/script&gt; &lt;script type='text/javascript' src='https://cdnjs.cloudflare.com/ajax/libs/pdfmake/0.1.36/vfs_fonts.js'&gt;&lt;/script&gt; &lt;script type='text/javascript' src='https://cdn.datatables.net/v/bs4/jq-3.6.0/jszip-2.5.0/dt-1.13.2/b-2.3.4/b-colvis-2.3.4/b-html5-2.3.4/b-print-2.3.4/r-2.4.0/datatables.min.js'&gt;&lt;/script&gt; &lt;script&gt; $(document).ready(function () { $('#mydatatable').DataTable({ responsive: true, paging: false, autoWidth: false, info: false, dom: 'frtipB', buttons: [{ extend: 'copy', text: 'Copy', className: 'btn btn-secondary mx-1 mb-1' }, { extend: 'excel', text: 'Excel', className: 'btn btn-secondary mr-1 mb-1' }, { extend: 'csvHtml5', text: 'CSV', fieldBoundary: '', fieldSeparator: ';', className: 'btn btn-secondary mr-1 mb-1' }, { extend: 'pdf', text: 'PDF', className: 'btn btn-secondary mr-1 mb-1' }, { extend: 'print', text: 'Print', className: 'btn btn-secondary mr-1 mb-1' }] }); }); &lt;/script&gt; &lt;style&gt; div.dt-buttons { float: right; } &lt;/style&gt;</v>
       </c>
-      <c r="D10" s="1" t="str">
+      <c r="D11" s="1" t="str">
         <f>""</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:4" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="2" t="str">
+    <row r="12" spans="2:4" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="2" t="str">
         <f>IF(Settings!$E$7="EN","List template (Footer)","Liste (Fußzeile)")</f>
         <v>List template (Footer)</v>
       </c>
-      <c r="C11" s="5" t="str">
-        <f>IF(Settings!$E$8="Yes / Ja",C10,C9)</f>
+      <c r="C12" s="5" t="str">
+        <f>IF(Settings!$E$8="Yes / Ja",C11,C10)</f>
         <v>&lt;/tbody&gt;&lt;/table&gt;&lt;/div&gt;</v>
       </c>
-      <c r="D11" s="1" t="str">
+      <c r="D12" s="1" t="str">
         <f>""</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:4" s="1" customFormat="1" ht="20.05" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="42" t="str">
+    <row r="13" spans="2:4" s="1" customFormat="1" ht="20.05" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="42" t="str">
         <f>IF(Settings!$E$7="EN","Advanced search template","Erweiterten Suche")</f>
         <v>Advanced search template</v>
-      </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="1" t="str">
-        <f>""</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="2:4" s="1" customFormat="1" ht="20.05" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="42" t="str">
-        <f>IF(Settings!$E$7="EN","RSS template","RSS-Feed")</f>
-        <v>RSS template</v>
       </c>
       <c r="C13" s="43"/>
       <c r="D13" s="1" t="str">
@@ -5681,8 +5684,9 @@
       </c>
     </row>
     <row r="14" spans="2:4" s="1" customFormat="1" ht="20.05" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="42" t="s">
-        <v>2</v>
+      <c r="B14" s="42" t="str">
+        <f>IF(Settings!$E$7="EN","RSS template","RSS-Feed")</f>
+        <v>RSS template</v>
       </c>
       <c r="C14" s="43"/>
       <c r="D14" s="1" t="str">
@@ -5692,12 +5696,9 @@
     </row>
     <row r="15" spans="2:4" s="1" customFormat="1" ht="20.05" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="43" t="str">
-        <f>"/* CSS for dropdown-menu in list view */ #region-main .dropdown-menu .icon.fa.fa-search-plus.fa-fw::after { content: ' "&amp;IF(Settings!$E$7="EN", "View single", "Einzelansicht")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-cog.fa-fw::after { content: ' "&amp;IF(Settings!$E$7="EN", "Edit", "Bearbeiten")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-pencil.fa-fw::after { content: ' "&amp;IF(Settings!$E$7="EN", "Edit", "Bearbeiten")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-trash.fa-fw::after { content: ' "&amp;IF(Settings!$E$7="EN", "Delete", "Löschen")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-ban.fa-fw.iconsmall::after { content: ' "&amp;IF(Settings!$E$7="EN", "Do not approve", "Nicht freigeben")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-thumbs-up.fa-fw.iconsmall::after { content: ' "&amp;IF(Settings!$E$7="EN", "Approve", "Zulassen")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-item:empty { display: none; } "&amp;" .dropdown-item:not(.text-truncate) { white-space: nowrap; } "&amp;" /* Button color */ #region-main .btn-outline-primary { color: "&amp;Settings!E24&amp;" !important; border-color: "&amp;Settings!E24&amp;" !important; } "&amp;" #region-main .btn-outline-primary:hover, #region-main .btn-outline-primary:active, #region-main .btn-outline-primary:focus { background-color: "&amp;Settings!E24&amp;" !important; color: #ffffff !important; } "&amp;" /* Header new entry */ #page-mod-data-edit #region-main .card-header { background-color: "&amp;Settings!E12&amp;" !important; } "&amp;" #page-mod-data-edit #region-main .card-header h4 { color: "&amp;Settings!E13&amp;"; } #region-main .dropdown-item:hover { background-color: "&amp;Settings!E24&amp;"; } "&amp;" /* Header color single view */ #page-mod-data-view #region-main .card-header { background-color: "&amp;Settings!E17&amp;" !important; } "&amp;" #page-mod-data-view #region-main .card-header h4 { color: "&amp;Settings!E18&amp;"; } "&amp;" /* Edit Icons color and bigger size */ #region-main .card-header .icon { color: "&amp;Settings!E19&amp;"; font-size: 20px; width: 20px; height: 20px; } "&amp;" /* Style of table header in list view */ #region-main th { background-color: "&amp;Settings!E22&amp;"; color: "&amp;Settings!E23&amp;"; }"&amp;IF(Settings!$E$8="Yes / Ja","#region-main:has(.nav-tabs &gt; .nav-item:first-of-type &gt; .nav-link.active) .datapreferences { display: none; } #region-main &gt; div[role=main] &gt; br:first-of-type { display:none }","")</f>
-        <v>/* CSS for dropdown-menu in list view */ #region-main .dropdown-menu .icon.fa.fa-search-plus.fa-fw::after { content: ' View single'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-cog.fa-fw::after { content: ' Edit'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-pencil.fa-fw::after { content: ' Edit'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-trash.fa-fw::after { content: ' Delete'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-ban.fa-fw.iconsmall::after { content: ' Do not approve'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-thumbs-up.fa-fw.iconsmall::after { content: ' Approve'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-item:empty { display: none; }  .dropdown-item:not(.text-truncate) { white-space: nowrap; }  /* Button color */ #region-main .btn-outline-primary { color: #008196 !important; border-color: #008196 !important; }  #region-main .btn-outline-primary:hover, #region-main .btn-outline-primary:active, #region-main .btn-outline-primary:focus { background-color: #008196 !important; color: #ffffff !important; }  /* Header new entry */ #page-mod-data-edit #region-main .card-header { background-color: #008196 !important; }  #page-mod-data-edit #region-main .card-header h4 { color: #ffffff; } #region-main .dropdown-item:hover { background-color: #008196; }  /* Header color single view */ #page-mod-data-view #region-main .card-header { background-color: #008196 !important; }  #page-mod-data-view #region-main .card-header h4 { color: #ffffff; }  /* Edit Icons color and bigger size */ #region-main .card-header .icon { color: #ffffff; font-size: 20px; width: 20px; height: 20px; }  /* Style of table header in list view */ #region-main th { background-color: #008196; color: #ffffff; }</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C15" s="43"/>
       <c r="D15" s="1" t="str">
         <f>""</f>
         <v/>
@@ -5705,43 +5706,56 @@
     </row>
     <row r="16" spans="2:4" s="1" customFormat="1" ht="20.05" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="43" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="C16" s="43" t="str">
+        <f>"/* CSS for dropdown-menu in list view */ #region-main .dropdown-menu .icon.fa.fa-search-plus.fa-fw::after { content: ' "&amp;IF(Settings!$E$7="EN", "View single", "Einzelansicht")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-cog.fa-fw::after { content: ' "&amp;IF(Settings!$E$7="EN", "Edit", "Bearbeiten")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-pencil.fa-fw::after { content: ' "&amp;IF(Settings!$E$7="EN", "Edit", "Bearbeiten")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-trash.fa-fw::after { content: ' "&amp;IF(Settings!$E$7="EN", "Delete", "Löschen")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-ban.fa-fw.iconsmall::after { content: ' "&amp;IF(Settings!$E$7="EN", "Do not approve", "Nicht freigeben")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-thumbs-up.fa-fw.iconsmall::after { content: ' "&amp;IF(Settings!$E$7="EN", "Approve", "Zulassen")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-item:empty { display: none; } "&amp;" .dropdown-item:not(.text-truncate) { white-space: nowrap; } "&amp;" /* Button color */ #region-main .btn-outline-primary { color: "&amp;Settings!E24&amp;" !important; border-color: "&amp;Settings!E24&amp;" !important; } "&amp;" #region-main .btn-outline-primary:hover, #region-main .btn-outline-primary:active, #region-main .btn-outline-primary:focus { background-color: "&amp;Settings!E24&amp;" !important; color: #ffffff !important; } "&amp;" /* Header new entry */ #page-mod-data-edit #region-main .card-header { background-color: "&amp;Settings!E12&amp;" !important; } "&amp;" #page-mod-data-edit #region-main .card-header h4 { color: "&amp;Settings!E13&amp;"; } #region-main .dropdown-item:hover { background-color: "&amp;Settings!E24&amp;"; } "&amp;" /* Header color single view */ #page-mod-data-view #region-main .card-header { background-color: "&amp;Settings!E17&amp;" !important; } "&amp;" #page-mod-data-view #region-main .card-header h4 { color: "&amp;Settings!E18&amp;"; } "&amp;" /* Edit Icons color and bigger size */ #region-main .card-header .icon { color: "&amp;Settings!E19&amp;"; font-size: 20px; width: 20px; height: 20px; } "&amp;" /* Style of table header in list view */ #region-main th { background-color: "&amp;Settings!E22&amp;"; color: "&amp;Settings!E23&amp;"; }"</f>
+        <v>/* CSS for dropdown-menu in list view */ #region-main .dropdown-menu .icon.fa.fa-search-plus.fa-fw::after { content: ' View single'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-cog.fa-fw::after { content: ' Edit'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-pencil.fa-fw::after { content: ' Edit'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-trash.fa-fw::after { content: ' Delete'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-ban.fa-fw.iconsmall::after { content: ' Do not approve'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-thumbs-up.fa-fw.iconsmall::after { content: ' Approve'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-item:empty { display: none; }  .dropdown-item:not(.text-truncate) { white-space: nowrap; }  /* Button color */ #region-main .btn-outline-primary { color: #008196 !important; border-color: #008196 !important; }  #region-main .btn-outline-primary:hover, #region-main .btn-outline-primary:active, #region-main .btn-outline-primary:focus { background-color: #008196 !important; color: #ffffff !important; }  /* Header new entry */ #page-mod-data-edit #region-main .card-header { background-color: #008196 !important; }  #page-mod-data-edit #region-main .card-header h4 { color: #ffffff; } #region-main .dropdown-item:hover { background-color: #008196; }  /* Header color single view */ #page-mod-data-view #region-main .card-header { background-color: #008196 !important; }  #page-mod-data-view #region-main .card-header h4 { color: #ffffff; }  /* Edit Icons color and bigger size */ #region-main .card-header .icon { color: #ffffff; font-size: 20px; width: 20px; height: 20px; }  /* Style of table header in list view */ #region-main th { background-color: #008196; color: #ffffff; }</v>
       </c>
       <c r="D16" s="1" t="str">
         <f>""</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:4" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="2" t="str">
+    <row r="17" spans="2:4" s="1" customFormat="1" ht="20.05" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:4" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="2" t="str">
         <f>IF(Settings!$E$7="EN","CSS template","CSS-Vorlage")</f>
         <v>CSS template</v>
       </c>
-      <c r="C17" s="5" t="str">
-        <f>C15&amp;C16</f>
+      <c r="C18" s="5" t="str">
+        <f>C16&amp;C17</f>
         <v>/* CSS for dropdown-menu in list view */ #region-main .dropdown-menu .icon.fa.fa-search-plus.fa-fw::after { content: ' View single'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-cog.fa-fw::after { content: ' Edit'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-pencil.fa-fw::after { content: ' Edit'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-trash.fa-fw::after { content: ' Delete'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-ban.fa-fw.iconsmall::after { content: ' Do not approve'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-thumbs-up.fa-fw.iconsmall::after { content: ' Approve'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-item:empty { display: none; }  .dropdown-item:not(.text-truncate) { white-space: nowrap; }  /* Button color */ #region-main .btn-outline-primary { color: #008196 !important; border-color: #008196 !important; }  #region-main .btn-outline-primary:hover, #region-main .btn-outline-primary:active, #region-main .btn-outline-primary:focus { background-color: #008196 !important; color: #ffffff !important; }  /* Header new entry */ #page-mod-data-edit #region-main .card-header { background-color: #008196 !important; }  #page-mod-data-edit #region-main .card-header h4 { color: #ffffff; } #region-main .dropdown-item:hover { background-color: #008196; }  /* Header color single view */ #page-mod-data-view #region-main .card-header { background-color: #008196 !important; }  #page-mod-data-view #region-main .card-header h4 { color: #ffffff; }  /* Edit Icons color and bigger size */ #region-main .card-header .icon { color: #ffffff; font-size: 20px; width: 20px; height: 20px; }  /* Style of table header in list view */ #region-main th { background-color: #008196; color: #ffffff; }/* Headlines */ #region-main h4 { margin-top: 1em; margin-bottom: 0.3em; font-weight: 300; } /* Approval status on single view */ .single-badge { font-weight: 400; margin-bottom: -1.25rem; } /* Card border color */ #region-main .card { border-color: #c8ccd0; } /* responsive images */ #page-mod-data-view img.list_picture { max-width: 100%; } #region-main .dropdown-item:hover .icon { color: #fff; } /* Headlines formfields */ #region-main h6 { font-size: 1.2em; font-weight: 400; margin-bottom: 0.7em; } /* margin after Atto editor */ .mod-data-input:has(.editor_atto_wrap) { margin-bottom: 20px; } /* Icons of dropdown */ #region-main .dropdown-item .icon { font-size: 16px; width: 16px; height: 16px; } /* Rows are yellow if not approved + darker on hover */ table tbody tr:nth-child(2n+1):has(span.approve) { background-color: #fff3c0!important; } table tbody tr:nth-child(2n):has(span.approve) { background-color: #fff8d9!important; } table tbody tr:has(span.approve):hover { background-color: #ffeea6!important; } /* Rows are yellow if not approved (dataTables) */ table.dataTable.table&gt;tbody&gt;tr:has(span.approve)&gt;* { box-shadow: none; } /* Abstand unter dataTable */ #mydatatable { margin-bottom: 15px!important; } /* Button Abstand korrigieren */ input[value="Ins Portfolio exportieren"] { margin-top: 0.25rem; }​/* Druckversion */ @media print { #page-header, #page-footer, .intro, .nav-tabs, .datapreferences, .btn-secondary, i.icon, .comment-area, .pagination, input, .footnote, .activity-navigation { display: none; } }</v>
       </c>
-      <c r="D17" s="1" t="str">
+      <c r="D18" s="1" t="str">
         <f>""</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:4" s="1" customFormat="1" ht="20.05" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="42" t="str">
+    <row r="19" spans="2:4" s="1" customFormat="1" ht="20.05" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="42" t="str">
         <f>IF(Settings!$E$7="EN","Javascript template","JavaScript für Vorlagen")</f>
         <v>Javascript template</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="1" t="str">
+      <c r="C19" s="43"/>
+      <c r="D19" s="1" t="str">
         <f>""</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D19" s="1" t="str">
+    <row r="20" spans="2:4" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D20" s="1" t="str">
         <f>""</f>
         <v/>
       </c>
@@ -5751,7 +5765,7 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C5:C6 C12:C14 C9" unlockedFormula="1"/>
+    <ignoredError sqref="C6:C7 C13:C15 C10" unlockedFormula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Template-Generator_for_Moodle_Databases.xlsx
+++ b/Template-Generator_for_Moodle_Databases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aa2fd555716d4621/Schule/Schule/Medien/Moodle/Vorlagen/Datenbank/Git/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aa2fd555716d4621/Schule/Schule/Medien/Moodle/Vorlagen/Datenbank/Git/moodle-database-generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1251" documentId="13_ncr:1_{7DEECC36-6B18-4B7F-96A7-5897EB976A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{456CCD01-CFA7-4E56-92D5-8D409F1B2CED}"/>
+  <xr:revisionPtr revIDLastSave="1254" documentId="13_ncr:1_{7DEECC36-6B18-4B7F-96A7-5897EB976A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{891DDCF1-0A98-461C-A537-C7321017956C}"/>
   <bookViews>
     <workbookView xWindow="32811" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{B7FF9584-A0C9-4520-8363-27EB39F90318}"/>
   </bookViews>
@@ -669,45 +669,6 @@
   </cellStyles>
   <dxfs count="21">
     <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF008196"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -997,6 +958,45 @@
       </border>
       <protection locked="1" hidden="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF008196"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1020,34 +1020,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E58CC641-CF45-4CFF-8CC1-2ECB18EEAC18}" name="Tabelle1" displayName="Tabelle1" ref="B2:L100" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17" totalsRowBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E58CC641-CF45-4CFF-8CC1-2ECB18EEAC18}" name="Tabelle1" displayName="Tabelle1" ref="B2:L100" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <autoFilter ref="B2:L100" xr:uid="{E58CC641-CF45-4CFF-8CC1-2ECB18EEAC18}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{2CAD02C3-E989-47F2-ACF1-05D86CC61050}" name="Moodle field / Feld" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{B960D793-A4EA-4541-8B7A-84581F4C723A}" name="fiel#id" dataDxfId="14">
+    <tableColumn id="1" xr3:uid="{2CAD02C3-E989-47F2-ACF1-05D86CC61050}" name="Moodle field / Feld" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{B960D793-A4EA-4541-8B7A-84581F4C723A}" name="fiel#id" dataDxfId="9">
       <calculatedColumnFormula>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B3&amp;"]]")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{DCDC97CD-02E6-4CE9-9F45-005A62064FC9}" name="Headline / Überschriften" dataDxfId="13">
+    <tableColumn id="2" xr3:uid="{DCDC97CD-02E6-4CE9-9F45-005A62064FC9}" name="Headline / Überschriften" dataDxfId="8">
       <calculatedColumnFormula>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{14D5DAFB-44D4-41AB-99EC-75E1A211501C}" name="Custom Headline / Eigene Überschrift" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{73C1862E-07BA-4DA4-A5A7-3EE3F8645709}" name="Datatable-Priority / Priorität" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{BED9F1AF-933E-484D-B943-F21888931742}" name="divs" dataDxfId="10">
+    <tableColumn id="3" xr3:uid="{14D5DAFB-44D4-41AB-99EC-75E1A211501C}" name="Custom Headline / Eigene Überschrift" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{73C1862E-07BA-4DA4-A5A7-3EE3F8645709}" name="Datatable-Priority / Priorität" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{BED9F1AF-933E-484D-B943-F21888931742}" name="divs" dataDxfId="5">
       <calculatedColumnFormula>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D3&amp;"&lt;/h4&gt;"&amp;C3&amp;"&lt;br&gt;&lt;/div&gt;"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F65B0FC7-4D25-4967-9C79-E815C7C09652}" name="th" dataDxfId="9">
+    <tableColumn id="6" xr3:uid="{F65B0FC7-4D25-4967-9C79-E815C7C09652}" name="th" dataDxfId="4">
       <calculatedColumnFormula>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{7F22C2F6-82A9-4292-8453-565D3776B203}" name="th-dt" dataDxfId="8">
+    <tableColumn id="11" xr3:uid="{7F22C2F6-82A9-4292-8453-565D3776B203}" name="th-dt" dataDxfId="3">
       <calculatedColumnFormula>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3B5DCC51-0242-46B9-A6E0-0032E39596DB}" name="td" dataDxfId="7">
+    <tableColumn id="7" xr3:uid="{3B5DCC51-0242-46B9-A6E0-0032E39596DB}" name="td" dataDxfId="2">
       <calculatedColumnFormula>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{73A94E74-D092-4EB3-B6B4-F3F1F171A2EE}" name="p" dataDxfId="6">
+    <tableColumn id="8" xr3:uid="{73A94E74-D092-4EB3-B6B4-F3F1F171A2EE}" name="p" dataDxfId="1">
       <calculatedColumnFormula>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B03A9011-0203-4333-A7A9-6BF47E4ED1DD}" name="rss" dataDxfId="5">
+    <tableColumn id="9" xr3:uid="{B03A9011-0203-4333-A7A9-6BF47E4ED1DD}" name="rss" dataDxfId="0">
       <calculatedColumnFormula>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5445,15 +5445,15 @@
   <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" selectLockedCells="1" sort="0"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B3:C100">
-    <cfRule type="expression" dxfId="4" priority="10">
+    <cfRule type="expression" dxfId="20" priority="10">
       <formula>$C3="[[]]"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B100">
-    <cfRule type="duplicateValues" dxfId="3" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E5 D6 D7:E100">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
       <formula>"&lt;----- Add field or select a ##tag##"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5570,8 +5570,8 @@
         <v>Advanced search template</v>
       </c>
       <c r="C5" s="5" t="str">
-        <f>"&lt;style&gt; .boxaligncenter { width: 100%; } select { margin-top: 0.5rem; margin-bottom: 1rem; } input { margin-top: 0.5rem; } #region-main h4 { margin-top: 0!important; margin-bottom: 0!important; } &lt;/style&gt;"&amp;"&lt;div class='container'&gt;&lt;div class='card mb-4 rounded'&gt;&lt;div class='card-header bg-info'&gt;&lt;h4 class='m-2'&gt;"&amp;IF(Settings!$E$7="EN", "Search", "Suche")&amp;"&lt;/h4&gt;&lt;/div&gt;&lt;div class='card-body pb-0 pt-4 m-0'&gt;&lt;div class='card-text m-0 p-0'&gt;"&amp;_xlfn.TEXTJOIN(,TRUE,Tabelle1[divs])&amp;"&lt;br&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;hr&gt;"</f>
-        <v>&lt;style&gt; .boxaligncenter { width: 100%; } select { margin-top: 0.5rem; margin-bottom: 1rem; } input { margin-top: 0.5rem; } #region-main h4 { margin-top: 0!important; margin-bottom: 0!important; } &lt;/style&gt;&lt;div class='container'&gt;&lt;div class='card mb-4 rounded'&gt;&lt;div class='card-header bg-info'&gt;&lt;h4 class='m-2'&gt;Search&lt;/h4&gt;&lt;/div&gt;&lt;div class='card-body pb-0 pt-4 m-0'&gt;&lt;div class='card-text m-0 p-0'&gt;&lt;br&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;hr&gt;</v>
+        <f>"&lt;style&gt; .boxaligncenter { width: 100%; } .boxaligncenter select { margin-top: 0.5rem; margin-bottom: 1rem; } .boxaligncenter input { margin-top: 0.5rem; } #region-main h4 { margin-top: 0!important; margin-bottom: 0!important; } &lt;/style&gt;"&amp;"&lt;div class='container'&gt;&lt;div class='card mb-4 rounded'&gt;&lt;div class='card-header bg-info'&gt;&lt;h4 class='m-2'&gt;"&amp;IF(Settings!$E$7="EN", "Search", "Suche")&amp;"&lt;/h4&gt;&lt;/div&gt;&lt;div class='card-body pb-0 pt-4 m-0'&gt;&lt;div class='card-text m-0 p-0'&gt;"&amp;_xlfn.TEXTJOIN(,TRUE,Tabelle1[divs])&amp;"&lt;br&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;hr&gt;"</f>
+        <v>&lt;style&gt; .boxaligncenter { width: 100%; } .boxaligncenter select { margin-top: 0.5rem; margin-bottom: 1rem; } .boxaligncenter input { margin-top: 0.5rem; } #region-main h4 { margin-top: 0!important; margin-bottom: 0!important; } &lt;/style&gt;&lt;div class='container'&gt;&lt;div class='card mb-4 rounded'&gt;&lt;div class='card-header bg-info'&gt;&lt;h4 class='m-2'&gt;Search&lt;/h4&gt;&lt;/div&gt;&lt;div class='card-body pb-0 pt-4 m-0'&gt;&lt;div class='card-text m-0 p-0'&gt;&lt;br&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;hr&gt;</v>
       </c>
       <c r="D5" s="1" t="str">
         <f>""</f>

--- a/Template-Generator_for_Moodle_Databases.xlsx
+++ b/Template-Generator_for_Moodle_Databases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aa2fd555716d4621/Schule/Schule/Medien/Moodle/Vorlagen/Datenbank/Git/moodle-database-generator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aa2fd555716d4621/Schule/Schule/Medien/Moodle/Vorlagen/Datenbank/Git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1254" documentId="13_ncr:1_{7DEECC36-6B18-4B7F-96A7-5897EB976A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{891DDCF1-0A98-461C-A537-C7321017956C}"/>
+  <xr:revisionPtr revIDLastSave="1287" documentId="13_ncr:1_{7DEECC36-6B18-4B7F-96A7-5897EB976A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5023991C-4F4A-4801-9A26-BDF88C8691A0}"/>
   <bookViews>
     <workbookView xWindow="32811" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{B7FF9584-A0C9-4520-8363-27EB39F90318}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
   <si>
     <t>fiel#id</t>
   </si>
@@ -221,6 +221,15 @@
   </si>
   <si>
     <t>/* Headlines */ #region-main h4 { margin-top: 1em; margin-bottom: 0.3em; font-weight: 300; } /* Approval status on single view */ .single-badge { font-weight: 400; margin-bottom: -1.25rem; } /* Card border color */ #region-main .card { border-color: #c8ccd0; } /* responsive images */ #page-mod-data-view img.list_picture { max-width: 100%; } #region-main .dropdown-item:hover .icon { color: #fff; } /* Headlines formfields */ #region-main h6 { font-size: 1.2em; font-weight: 400; margin-bottom: 0.7em; } /* margin after Atto editor */ .mod-data-input:has(.editor_atto_wrap) { margin-bottom: 20px; } /* Icons of dropdown */ #region-main .dropdown-item .icon { font-size: 16px; width: 16px; height: 16px; } /* Rows are yellow if not approved + darker on hover */ table tbody tr:nth-child(2n+1):has(span.approve) { background-color: #fff3c0!important; } table tbody tr:nth-child(2n):has(span.approve) { background-color: #fff8d9!important; } table tbody tr:has(span.approve):hover { background-color: #ffeea6!important; } /* Rows are yellow if not approved (dataTables) */ table.dataTable.table&gt;tbody&gt;tr:has(span.approve)&gt;* { box-shadow: none; } /* Abstand unter dataTable */ #mydatatable { margin-bottom: 15px!important; } /* Button Abstand korrigieren */ input[value="Ins Portfolio exportieren"] { margin-top: 0.25rem; }​/* Druckversion */ @media print { #page-header, #page-footer, .intro, .nav-tabs, .datapreferences, .btn-secondary, i.icon, .comment-area, .pagination, input, .footnote, .activity-navigation { display: none; } }</t>
+  </si>
+  <si>
+    <t>##firstname##</t>
+  </si>
+  <si>
+    <t>##lastname##</t>
+  </si>
+  <si>
+    <t>Suche</t>
   </si>
 </sst>
 </file>
@@ -374,7 +383,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -524,11 +533,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -663,11 +687,72 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="22">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF008196"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -958,45 +1043,6 @@
       </border>
       <protection locked="1" hidden="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF008196"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1020,34 +1066,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E58CC641-CF45-4CFF-8CC1-2ECB18EEAC18}" name="Tabelle1" displayName="Tabelle1" ref="B2:L100" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="B2:L100" xr:uid="{E58CC641-CF45-4CFF-8CC1-2ECB18EEAC18}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{2CAD02C3-E989-47F2-ACF1-05D86CC61050}" name="Moodle field / Feld" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{B960D793-A4EA-4541-8B7A-84581F4C723A}" name="fiel#id" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E58CC641-CF45-4CFF-8CC1-2ECB18EEAC18}" name="Tabelle1" displayName="Tabelle1" ref="B2:M100" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
+  <autoFilter ref="B2:M100" xr:uid="{E58CC641-CF45-4CFF-8CC1-2ECB18EEAC18}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{2CAD02C3-E989-47F2-ACF1-05D86CC61050}" name="Moodle field / Feld" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{B960D793-A4EA-4541-8B7A-84581F4C723A}" name="fiel#id" dataDxfId="15">
       <calculatedColumnFormula>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B3&amp;"]]")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{DCDC97CD-02E6-4CE9-9F45-005A62064FC9}" name="Headline / Überschriften" dataDxfId="8">
+    <tableColumn id="2" xr3:uid="{DCDC97CD-02E6-4CE9-9F45-005A62064FC9}" name="Headline / Überschriften" dataDxfId="14">
       <calculatedColumnFormula>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{14D5DAFB-44D4-41AB-99EC-75E1A211501C}" name="Custom Headline / Eigene Überschrift" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{73C1862E-07BA-4DA4-A5A7-3EE3F8645709}" name="Datatable-Priority / Priorität" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{BED9F1AF-933E-484D-B943-F21888931742}" name="divs" dataDxfId="5">
+    <tableColumn id="3" xr3:uid="{14D5DAFB-44D4-41AB-99EC-75E1A211501C}" name="Custom Headline / Eigene Überschrift" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{73C1862E-07BA-4DA4-A5A7-3EE3F8645709}" name="Datatable-Priority / Priorität" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{BED9F1AF-933E-484D-B943-F21888931742}" name="divs" dataDxfId="11">
       <calculatedColumnFormula>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D3&amp;"&lt;/h4&gt;"&amp;C3&amp;"&lt;br&gt;&lt;/div&gt;"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F65B0FC7-4D25-4967-9C79-E815C7C09652}" name="th" dataDxfId="4">
+    <tableColumn id="12" xr3:uid="{3EFC04EA-832F-4BFA-B77F-B47A07AEAE52}" name="Suche" dataDxfId="0">
+      <calculatedColumnFormula>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D3&amp;"&lt;/h4&gt;"&amp;C3&amp;"&lt;br&gt;&lt;/div&gt;")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{F65B0FC7-4D25-4967-9C79-E815C7C09652}" name="th" dataDxfId="10">
       <calculatedColumnFormula>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{7F22C2F6-82A9-4292-8453-565D3776B203}" name="th-dt" dataDxfId="3">
+    <tableColumn id="11" xr3:uid="{7F22C2F6-82A9-4292-8453-565D3776B203}" name="th-dt" dataDxfId="9">
       <calculatedColumnFormula>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3B5DCC51-0242-46B9-A6E0-0032E39596DB}" name="td" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{3B5DCC51-0242-46B9-A6E0-0032E39596DB}" name="td" dataDxfId="8">
       <calculatedColumnFormula>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{73A94E74-D092-4EB3-B6B4-F3F1F171A2EE}" name="p" dataDxfId="1">
+    <tableColumn id="8" xr3:uid="{73A94E74-D092-4EB3-B6B4-F3F1F171A2EE}" name="p" dataDxfId="7">
       <calculatedColumnFormula>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B03A9011-0203-4333-A7A9-6BF47E4ED1DD}" name="rss" dataDxfId="0">
+    <tableColumn id="9" xr3:uid="{B03A9011-0203-4333-A7A9-6BF47E4ED1DD}" name="rss" dataDxfId="6">
       <calculatedColumnFormula>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1734,7 +1783,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234EB558-CFCC-4432-98E6-8A1A4CF8F187}">
-  <dimension ref="B1:N100"/>
+  <dimension ref="B1:O100"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -1748,18 +1797,18 @@
     <col min="4" max="4" width="40.69140625" customWidth="1"/>
     <col min="5" max="5" width="40.69140625" style="8" customWidth="1"/>
     <col min="6" max="6" width="31.3046875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="11.07421875" hidden="1" customWidth="1"/>
-    <col min="8" max="12" width="20.69140625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="23.3046875" customWidth="1"/>
-    <col min="14" max="14" width="20.07421875" customWidth="1"/>
+    <col min="7" max="8" width="11.07421875" hidden="1" customWidth="1"/>
+    <col min="9" max="13" width="20.69140625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="23.3046875" customWidth="1"/>
+    <col min="15" max="15" width="20.07421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="21.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:15" ht="21.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="27"/>
       <c r="E1"/>
       <c r="F1"/>
     </row>
-    <row r="2" spans="2:14" s="1" customFormat="1" ht="20.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:15" s="1" customFormat="1" ht="20.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="13" t="s">
         <v>46</v>
       </c>
@@ -1778,26 +1827,29 @@
       <c r="G2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="J2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="K2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="L2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="M2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="O2" s="24" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="2:14" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:15" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="9"/>
       <c r="C3" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B3&amp;"]]")</f>
@@ -1813,31 +1865,35 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D3&amp;"&lt;/h4&gt;"&amp;C3&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H3" s="19" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+      <c r="H3" s="44" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D3&amp;"&lt;/h4&gt;"&amp;C3&amp;"&lt;br&gt;&lt;/div&gt;")</f>
         <v/>
       </c>
       <c r="I3" s="19" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
         <v/>
       </c>
       <c r="J3" s="19" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K3" s="19" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L3" s="19" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-      <c r="N3" s="25" t="s">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M3" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+      <c r="O3" s="25" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="2:14" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="9"/>
       <c r="C4" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B4&amp;"]]")</f>
@@ -1853,31 +1909,35 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D4&amp;"&lt;/h4&gt;"&amp;C4&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H4" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I4" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J4" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H4" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D4&amp;"&lt;/h4&gt;"&amp;C4&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I4" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J4" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K4" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L4" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-      <c r="N4" s="25" t="s">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M4" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+      <c r="O4" s="25" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="9"/>
       <c r="C5" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B5&amp;"]]")</f>
@@ -1893,31 +1953,35 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D5&amp;"&lt;/h4&gt;"&amp;C5&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H5" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I5" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J5" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H5" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D5&amp;"&lt;/h4&gt;"&amp;C5&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I5" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J5" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K5" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L5" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-      <c r="N5" s="26" t="s">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M5" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+      <c r="O5" s="26" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B6&amp;"]]")</f>
@@ -1933,31 +1997,35 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D6&amp;"&lt;/h4&gt;"&amp;C6&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H6" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I6" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J6" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H6" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D6&amp;"&lt;/h4&gt;"&amp;C6&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I6" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J6" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K6" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L6" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-      <c r="N6" s="26" t="s">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M6" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+      <c r="O6" s="26" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="9"/>
       <c r="C7" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B7&amp;"]]")</f>
@@ -1973,31 +2041,35 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D7&amp;"&lt;/h4&gt;"&amp;C7&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H7" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I7" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J7" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H7" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D7&amp;"&lt;/h4&gt;"&amp;C7&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I7" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J7" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K7" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L7" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-      <c r="N7" s="26" t="s">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M7" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+      <c r="O7" s="26" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="9"/>
       <c r="C8" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B8&amp;"]]")</f>
@@ -2013,31 +2085,35 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D8&amp;"&lt;/h4&gt;"&amp;C8&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H8" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I8" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J8" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H8" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D8&amp;"&lt;/h4&gt;"&amp;C8&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I8" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J8" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K8" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L8" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-      <c r="N8" s="26" t="s">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M8" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+      <c r="O8" s="26" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="9"/>
       <c r="C9" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B9&amp;"]]")</f>
@@ -2053,28 +2129,35 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D9&amp;"&lt;/h4&gt;"&amp;C9&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H9" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I9" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J9" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H9" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D9&amp;"&lt;/h4&gt;"&amp;C9&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I9" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J9" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K9" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L9" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="2:14" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M9" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+      <c r="O9" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="9"/>
       <c r="C10" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B10&amp;"]]")</f>
@@ -2090,28 +2173,35 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D10&amp;"&lt;/h4&gt;"&amp;C10&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H10" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I10" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J10" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H10" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D10&amp;"&lt;/h4&gt;"&amp;C10&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I10" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J10" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K10" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L10" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="2:14" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M10" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+      <c r="O10" s="26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="9"/>
       <c r="C11" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B11&amp;"]]")</f>
@@ -2127,28 +2217,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D11&amp;"&lt;/h4&gt;"&amp;C11&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H11" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I11" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J11" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H11" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D11&amp;"&lt;/h4&gt;"&amp;C11&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I11" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J11" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K11" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L11" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="2:14" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M11" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="2:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="9"/>
       <c r="C12" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B12&amp;"]]")</f>
@@ -2164,28 +2258,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D12&amp;"&lt;/h4&gt;"&amp;C12&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H12" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I12" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J12" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H12" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D12&amp;"&lt;/h4&gt;"&amp;C12&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I12" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J12" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K12" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L12" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="2:14" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M12" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="2:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="9"/>
       <c r="C13" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B13&amp;"]]")</f>
@@ -2201,28 +2299,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D13&amp;"&lt;/h4&gt;"&amp;C13&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H13" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I13" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J13" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H13" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D13&amp;"&lt;/h4&gt;"&amp;C13&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I13" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J13" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K13" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L13" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="2:14" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M13" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="2:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="9"/>
       <c r="C14" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B14&amp;"]]")</f>
@@ -2238,28 +2340,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D14&amp;"&lt;/h4&gt;"&amp;C14&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H14" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I14" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J14" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H14" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D14&amp;"&lt;/h4&gt;"&amp;C14&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I14" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J14" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K14" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L14" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="2:14" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M14" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="2:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="9"/>
       <c r="C15" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B15&amp;"]]")</f>
@@ -2275,28 +2381,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D15&amp;"&lt;/h4&gt;"&amp;C15&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H15" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I15" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J15" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H15" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D15&amp;"&lt;/h4&gt;"&amp;C15&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I15" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J15" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K15" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L15" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="2:14" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M15" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="2:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="9"/>
       <c r="C16" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B16&amp;"]]")</f>
@@ -2312,28 +2422,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D16&amp;"&lt;/h4&gt;"&amp;C16&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H16" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I16" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J16" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H16" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D16&amp;"&lt;/h4&gt;"&amp;C16&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I16" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J16" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K16" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L16" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M16" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="9"/>
       <c r="C17" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B17&amp;"]]")</f>
@@ -2349,28 +2463,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D17&amp;"&lt;/h4&gt;"&amp;C17&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H17" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I17" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J17" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H17" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D17&amp;"&lt;/h4&gt;"&amp;C17&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I17" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J17" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K17" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L17" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M17" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="9"/>
       <c r="C18" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B18&amp;"]]")</f>
@@ -2386,28 +2504,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D18&amp;"&lt;/h4&gt;"&amp;C18&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H18" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I18" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J18" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H18" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D18&amp;"&lt;/h4&gt;"&amp;C18&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I18" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J18" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K18" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L18" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M18" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="9"/>
       <c r="C19" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B19&amp;"]]")</f>
@@ -2423,28 +2545,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D19&amp;"&lt;/h4&gt;"&amp;C19&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H19" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I19" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J19" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H19" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D19&amp;"&lt;/h4&gt;"&amp;C19&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I19" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J19" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K19" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L19" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M19" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="9"/>
       <c r="C20" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B20&amp;"]]")</f>
@@ -2460,28 +2586,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D20&amp;"&lt;/h4&gt;"&amp;C20&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H20" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I20" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J20" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H20" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D20&amp;"&lt;/h4&gt;"&amp;C20&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I20" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J20" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K20" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L20" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M20" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="9"/>
       <c r="C21" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B21&amp;"]]")</f>
@@ -2497,28 +2627,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D21&amp;"&lt;/h4&gt;"&amp;C21&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H21" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I21" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J21" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H21" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D21&amp;"&lt;/h4&gt;"&amp;C21&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I21" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J21" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K21" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L21" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M21" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="9"/>
       <c r="C22" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B22&amp;"]]")</f>
@@ -2534,28 +2668,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D22&amp;"&lt;/h4&gt;"&amp;C22&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H22" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I22" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J22" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H22" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D22&amp;"&lt;/h4&gt;"&amp;C22&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I22" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J22" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K22" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L22" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M22" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="9"/>
       <c r="C23" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B23&amp;"]]")</f>
@@ -2571,28 +2709,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D23&amp;"&lt;/h4&gt;"&amp;C23&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H23" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I23" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J23" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H23" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D23&amp;"&lt;/h4&gt;"&amp;C23&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I23" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J23" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K23" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L23" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M23" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="9"/>
       <c r="C24" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B24&amp;"]]")</f>
@@ -2608,28 +2750,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D24&amp;"&lt;/h4&gt;"&amp;C24&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H24" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I24" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J24" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H24" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D24&amp;"&lt;/h4&gt;"&amp;C24&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I24" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J24" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K24" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L24" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M24" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="9"/>
       <c r="C25" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B25&amp;"]]")</f>
@@ -2645,28 +2791,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D25&amp;"&lt;/h4&gt;"&amp;C25&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H25" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I25" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J25" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H25" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D25&amp;"&lt;/h4&gt;"&amp;C25&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I25" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J25" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K25" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L25" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M25" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="9"/>
       <c r="C26" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B26&amp;"]]")</f>
@@ -2682,28 +2832,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D26&amp;"&lt;/h4&gt;"&amp;C26&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H26" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I26" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J26" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H26" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D26&amp;"&lt;/h4&gt;"&amp;C26&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I26" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J26" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K26" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L26" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M26" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="9"/>
       <c r="C27" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B27&amp;"]]")</f>
@@ -2719,28 +2873,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D27&amp;"&lt;/h4&gt;"&amp;C27&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H27" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I27" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J27" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H27" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D27&amp;"&lt;/h4&gt;"&amp;C27&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I27" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J27" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K27" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L27" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M27" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="9"/>
       <c r="C28" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B28&amp;"]]")</f>
@@ -2756,28 +2914,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D28&amp;"&lt;/h4&gt;"&amp;C28&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H28" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I28" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J28" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H28" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D28&amp;"&lt;/h4&gt;"&amp;C28&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I28" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J28" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K28" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L28" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M28" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="9"/>
       <c r="C29" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B29&amp;"]]")</f>
@@ -2793,29 +2955,33 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D29&amp;"&lt;/h4&gt;"&amp;C29&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H29" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I29" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J29" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H29" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D29&amp;"&lt;/h4&gt;"&amp;C29&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I29" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J29" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K29" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L29" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="11"/>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M29" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="9"/>
       <c r="C30" s="15" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B30&amp;"]]")</f>
         <v>[[]]</v>
@@ -2830,28 +2996,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D30&amp;"&lt;/h4&gt;"&amp;C30&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H30" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+      <c r="H30" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D30&amp;"&lt;/h4&gt;"&amp;C30&amp;"&lt;br&gt;&lt;/div&gt;")</f>
         <v/>
       </c>
       <c r="I30" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
         <v/>
       </c>
       <c r="J30" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K30" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L30" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M30" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="9"/>
       <c r="C31" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B31&amp;"]]")</f>
@@ -2867,28 +3037,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D31&amp;"&lt;/h4&gt;"&amp;C31&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H31" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I31" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J31" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H31" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D31&amp;"&lt;/h4&gt;"&amp;C31&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I31" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J31" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K31" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L31" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M31" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="9"/>
       <c r="C32" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B32&amp;"]]")</f>
@@ -2904,28 +3078,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D32&amp;"&lt;/h4&gt;"&amp;C32&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H32" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I32" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J32" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H32" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D32&amp;"&lt;/h4&gt;"&amp;C32&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I32" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J32" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K32" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L32" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M32" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="9"/>
       <c r="C33" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B33&amp;"]]")</f>
@@ -2941,28 +3119,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D33&amp;"&lt;/h4&gt;"&amp;C33&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H33" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I33" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J33" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H33" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D33&amp;"&lt;/h4&gt;"&amp;C33&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I33" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J33" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K33" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L33" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M33" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="9"/>
       <c r="C34" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B34&amp;"]]")</f>
@@ -2978,28 +3160,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D34&amp;"&lt;/h4&gt;"&amp;C34&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H34" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I34" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J34" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H34" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D34&amp;"&lt;/h4&gt;"&amp;C34&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I34" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J34" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K34" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L34" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M34" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="9"/>
       <c r="C35" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B35&amp;"]]")</f>
@@ -3015,28 +3201,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D35&amp;"&lt;/h4&gt;"&amp;C35&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H35" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I35" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J35" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H35" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D35&amp;"&lt;/h4&gt;"&amp;C35&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I35" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J35" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K35" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L35" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M35" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="9"/>
       <c r="C36" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B36&amp;"]]")</f>
@@ -3052,28 +3242,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D36&amp;"&lt;/h4&gt;"&amp;C36&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H36" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I36" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J36" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H36" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D36&amp;"&lt;/h4&gt;"&amp;C36&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I36" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J36" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K36" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L36" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M36" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="9"/>
       <c r="C37" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B37&amp;"]]")</f>
@@ -3089,28 +3283,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D37&amp;"&lt;/h4&gt;"&amp;C37&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H37" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I37" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J37" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H37" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D37&amp;"&lt;/h4&gt;"&amp;C37&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I37" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J37" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K37" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L37" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M37" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="9"/>
       <c r="C38" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B38&amp;"]]")</f>
@@ -3126,28 +3324,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D38&amp;"&lt;/h4&gt;"&amp;C38&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H38" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I38" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J38" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H38" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D38&amp;"&lt;/h4&gt;"&amp;C38&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I38" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J38" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K38" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L38" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M38" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="9"/>
       <c r="C39" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B39&amp;"]]")</f>
@@ -3163,28 +3365,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D39&amp;"&lt;/h4&gt;"&amp;C39&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H39" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I39" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J39" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H39" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D39&amp;"&lt;/h4&gt;"&amp;C39&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I39" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J39" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K39" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L39" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M39" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="9"/>
       <c r="C40" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B40&amp;"]]")</f>
@@ -3200,28 +3406,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D40&amp;"&lt;/h4&gt;"&amp;C40&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H40" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I40" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J40" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H40" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D40&amp;"&lt;/h4&gt;"&amp;C40&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I40" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J40" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K40" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L40" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M40" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="9"/>
       <c r="C41" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B41&amp;"]]")</f>
@@ -3237,28 +3447,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D41&amp;"&lt;/h4&gt;"&amp;C41&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H41" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I41" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J41" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H41" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D41&amp;"&lt;/h4&gt;"&amp;C41&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I41" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J41" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K41" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L41" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M41" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="9"/>
       <c r="C42" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B42&amp;"]]")</f>
@@ -3274,28 +3488,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D42&amp;"&lt;/h4&gt;"&amp;C42&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H42" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I42" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J42" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H42" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D42&amp;"&lt;/h4&gt;"&amp;C42&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I42" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J42" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K42" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L42" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M42" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="9"/>
       <c r="C43" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B43&amp;"]]")</f>
@@ -3311,28 +3529,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D43&amp;"&lt;/h4&gt;"&amp;C43&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H43" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I43" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J43" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H43" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D43&amp;"&lt;/h4&gt;"&amp;C43&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I43" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J43" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K43" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L43" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M43" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="9"/>
       <c r="C44" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B44&amp;"]]")</f>
@@ -3348,28 +3570,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D44&amp;"&lt;/h4&gt;"&amp;C44&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H44" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I44" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J44" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H44" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D44&amp;"&lt;/h4&gt;"&amp;C44&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I44" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J44" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K44" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L44" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M44" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="9"/>
       <c r="C45" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B45&amp;"]]")</f>
@@ -3385,28 +3611,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D45&amp;"&lt;/h4&gt;"&amp;C45&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H45" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I45" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J45" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H45" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D45&amp;"&lt;/h4&gt;"&amp;C45&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I45" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J45" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K45" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L45" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M45" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="9"/>
       <c r="C46" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B46&amp;"]]")</f>
@@ -3422,28 +3652,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D46&amp;"&lt;/h4&gt;"&amp;C46&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H46" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I46" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J46" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H46" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D46&amp;"&lt;/h4&gt;"&amp;C46&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I46" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J46" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K46" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L46" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M46" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="9"/>
       <c r="C47" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B47&amp;"]]")</f>
@@ -3459,28 +3693,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D47&amp;"&lt;/h4&gt;"&amp;C47&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H47" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I47" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J47" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H47" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D47&amp;"&lt;/h4&gt;"&amp;C47&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I47" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J47" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K47" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L47" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M47" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="9"/>
       <c r="C48" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B48&amp;"]]")</f>
@@ -3496,28 +3734,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D48&amp;"&lt;/h4&gt;"&amp;C48&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H48" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I48" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J48" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H48" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D48&amp;"&lt;/h4&gt;"&amp;C48&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I48" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J48" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K48" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L48" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M48" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B49" s="9"/>
       <c r="C49" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B49&amp;"]]")</f>
@@ -3533,28 +3775,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D49&amp;"&lt;/h4&gt;"&amp;C49&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H49" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I49" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J49" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H49" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D49&amp;"&lt;/h4&gt;"&amp;C49&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I49" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J49" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K49" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L49" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M49" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="9"/>
       <c r="C50" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B50&amp;"]]")</f>
@@ -3570,28 +3816,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D50&amp;"&lt;/h4&gt;"&amp;C50&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H50" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I50" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J50" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H50" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D50&amp;"&lt;/h4&gt;"&amp;C50&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I50" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J50" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K50" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L50" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M50" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="9"/>
       <c r="C51" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B51&amp;"]]")</f>
@@ -3607,28 +3857,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D51&amp;"&lt;/h4&gt;"&amp;C51&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H51" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I51" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J51" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H51" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D51&amp;"&lt;/h4&gt;"&amp;C51&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I51" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J51" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K51" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L51" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M51" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="9"/>
       <c r="C52" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B52&amp;"]]")</f>
@@ -3644,28 +3898,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D52&amp;"&lt;/h4&gt;"&amp;C52&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H52" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I52" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J52" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H52" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D52&amp;"&lt;/h4&gt;"&amp;C52&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I52" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J52" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K52" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L52" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M52" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="9"/>
       <c r="C53" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B53&amp;"]]")</f>
@@ -3681,28 +3939,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D53&amp;"&lt;/h4&gt;"&amp;C53&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H53" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I53" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J53" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H53" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D53&amp;"&lt;/h4&gt;"&amp;C53&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I53" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J53" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K53" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L53" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M53" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="9"/>
       <c r="C54" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B54&amp;"]]")</f>
@@ -3718,28 +3980,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D54&amp;"&lt;/h4&gt;"&amp;C54&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H54" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I54" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J54" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H54" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D54&amp;"&lt;/h4&gt;"&amp;C54&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I54" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J54" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K54" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L54" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M54" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="9"/>
       <c r="C55" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B55&amp;"]]")</f>
@@ -3755,28 +4021,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D55&amp;"&lt;/h4&gt;"&amp;C55&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H55" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I55" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J55" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H55" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D55&amp;"&lt;/h4&gt;"&amp;C55&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I55" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J55" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K55" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L55" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M55" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="9"/>
       <c r="C56" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B56&amp;"]]")</f>
@@ -3792,28 +4062,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D56&amp;"&lt;/h4&gt;"&amp;C56&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H56" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I56" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J56" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H56" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D56&amp;"&lt;/h4&gt;"&amp;C56&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I56" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J56" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K56" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L56" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M56" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="9"/>
       <c r="C57" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B57&amp;"]]")</f>
@@ -3829,28 +4103,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D57&amp;"&lt;/h4&gt;"&amp;C57&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H57" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I57" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J57" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H57" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D57&amp;"&lt;/h4&gt;"&amp;C57&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I57" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J57" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K57" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L57" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M57" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="9"/>
       <c r="C58" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B58&amp;"]]")</f>
@@ -3866,28 +4144,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D58&amp;"&lt;/h4&gt;"&amp;C58&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H58" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I58" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J58" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H58" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D58&amp;"&lt;/h4&gt;"&amp;C58&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I58" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J58" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K58" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L58" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M58" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B59" s="9"/>
       <c r="C59" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B59&amp;"]]")</f>
@@ -3903,28 +4185,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D59&amp;"&lt;/h4&gt;"&amp;C59&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H59" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I59" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J59" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H59" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D59&amp;"&lt;/h4&gt;"&amp;C59&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I59" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J59" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K59" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L59" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M59" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B60" s="9"/>
       <c r="C60" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B60&amp;"]]")</f>
@@ -3940,28 +4226,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D60&amp;"&lt;/h4&gt;"&amp;C60&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H60" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I60" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J60" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H60" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D60&amp;"&lt;/h4&gt;"&amp;C60&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I60" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J60" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K60" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L60" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M60" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="9"/>
       <c r="C61" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B61&amp;"]]")</f>
@@ -3977,28 +4267,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D61&amp;"&lt;/h4&gt;"&amp;C61&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H61" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I61" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J61" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H61" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D61&amp;"&lt;/h4&gt;"&amp;C61&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I61" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J61" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K61" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L61" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M61" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B62" s="9"/>
       <c r="C62" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B62&amp;"]]")</f>
@@ -4014,28 +4308,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D62&amp;"&lt;/h4&gt;"&amp;C62&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H62" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I62" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J62" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H62" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D62&amp;"&lt;/h4&gt;"&amp;C62&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I62" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J62" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K62" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L62" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M62" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B63" s="9"/>
       <c r="C63" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B63&amp;"]]")</f>
@@ -4051,28 +4349,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D63&amp;"&lt;/h4&gt;"&amp;C63&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H63" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I63" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J63" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H63" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D63&amp;"&lt;/h4&gt;"&amp;C63&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I63" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J63" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K63" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L63" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M63" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B64" s="9"/>
       <c r="C64" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B64&amp;"]]")</f>
@@ -4088,28 +4390,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D64&amp;"&lt;/h4&gt;"&amp;C64&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H64" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I64" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J64" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H64" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D64&amp;"&lt;/h4&gt;"&amp;C64&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I64" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J64" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K64" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L64" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M64" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B65" s="9"/>
       <c r="C65" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B65&amp;"]]")</f>
@@ -4125,28 +4431,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D65&amp;"&lt;/h4&gt;"&amp;C65&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H65" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I65" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J65" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H65" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D65&amp;"&lt;/h4&gt;"&amp;C65&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I65" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J65" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K65" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L65" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M65" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B66" s="9"/>
       <c r="C66" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B66&amp;"]]")</f>
@@ -4162,28 +4472,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D66&amp;"&lt;/h4&gt;"&amp;C66&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H66" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I66" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J66" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H66" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D66&amp;"&lt;/h4&gt;"&amp;C66&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I66" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J66" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K66" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L66" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M66" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B67" s="9"/>
       <c r="C67" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B67&amp;"]]")</f>
@@ -4199,28 +4513,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D67&amp;"&lt;/h4&gt;"&amp;C67&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H67" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I67" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J67" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H67" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D67&amp;"&lt;/h4&gt;"&amp;C67&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I67" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J67" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K67" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L67" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M67" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B68" s="9"/>
       <c r="C68" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B68&amp;"]]")</f>
@@ -4236,28 +4554,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D68&amp;"&lt;/h4&gt;"&amp;C68&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H68" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I68" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J68" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H68" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D68&amp;"&lt;/h4&gt;"&amp;C68&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I68" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J68" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K68" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L68" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M68" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B69" s="9"/>
       <c r="C69" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B69&amp;"]]")</f>
@@ -4273,28 +4595,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D69&amp;"&lt;/h4&gt;"&amp;C69&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H69" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I69" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J69" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H69" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D69&amp;"&lt;/h4&gt;"&amp;C69&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I69" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J69" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K69" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L69" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M69" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B70" s="9"/>
       <c r="C70" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B70&amp;"]]")</f>
@@ -4310,28 +4636,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D70&amp;"&lt;/h4&gt;"&amp;C70&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H70" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I70" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J70" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H70" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D70&amp;"&lt;/h4&gt;"&amp;C70&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I70" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J70" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K70" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L70" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M70" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B71" s="9"/>
       <c r="C71" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B71&amp;"]]")</f>
@@ -4347,28 +4677,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D71&amp;"&lt;/h4&gt;"&amp;C71&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H71" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I71" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J71" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H71" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D71&amp;"&lt;/h4&gt;"&amp;C71&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I71" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J71" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K71" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L71" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M71" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B72" s="9"/>
       <c r="C72" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B72&amp;"]]")</f>
@@ -4384,28 +4718,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D72&amp;"&lt;/h4&gt;"&amp;C72&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H72" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I72" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J72" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H72" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D72&amp;"&lt;/h4&gt;"&amp;C72&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I72" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J72" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K72" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L72" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M72" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="9"/>
       <c r="C73" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B73&amp;"]]")</f>
@@ -4421,28 +4759,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D73&amp;"&lt;/h4&gt;"&amp;C73&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H73" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I73" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J73" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H73" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D73&amp;"&lt;/h4&gt;"&amp;C73&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I73" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J73" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K73" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L73" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M73" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="9"/>
       <c r="C74" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B74&amp;"]]")</f>
@@ -4458,28 +4800,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D74&amp;"&lt;/h4&gt;"&amp;C74&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H74" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I74" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J74" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H74" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D74&amp;"&lt;/h4&gt;"&amp;C74&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I74" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J74" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K74" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L74" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M74" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="9"/>
       <c r="C75" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B75&amp;"]]")</f>
@@ -4495,28 +4841,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D75&amp;"&lt;/h4&gt;"&amp;C75&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H75" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I75" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J75" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H75" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D75&amp;"&lt;/h4&gt;"&amp;C75&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I75" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J75" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K75" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L75" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M75" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="9"/>
       <c r="C76" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B76&amp;"]]")</f>
@@ -4532,28 +4882,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D76&amp;"&lt;/h4&gt;"&amp;C76&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H76" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I76" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J76" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H76" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D76&amp;"&lt;/h4&gt;"&amp;C76&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I76" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J76" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K76" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L76" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M76" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="9"/>
       <c r="C77" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B77&amp;"]]")</f>
@@ -4569,28 +4923,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D77&amp;"&lt;/h4&gt;"&amp;C77&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H77" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I77" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J77" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H77" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D77&amp;"&lt;/h4&gt;"&amp;C77&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I77" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J77" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K77" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L77" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M77" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="9"/>
       <c r="C78" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B78&amp;"]]")</f>
@@ -4606,28 +4964,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D78&amp;"&lt;/h4&gt;"&amp;C78&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H78" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I78" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J78" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H78" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D78&amp;"&lt;/h4&gt;"&amp;C78&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I78" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J78" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K78" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L78" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M78" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="9"/>
       <c r="C79" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B79&amp;"]]")</f>
@@ -4643,28 +5005,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D79&amp;"&lt;/h4&gt;"&amp;C79&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H79" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I79" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J79" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H79" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D79&amp;"&lt;/h4&gt;"&amp;C79&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I79" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J79" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K79" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L79" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M79" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="9"/>
       <c r="C80" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B80&amp;"]]")</f>
@@ -4680,28 +5046,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D80&amp;"&lt;/h4&gt;"&amp;C80&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H80" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I80" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J80" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H80" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D80&amp;"&lt;/h4&gt;"&amp;C80&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I80" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J80" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K80" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L80" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M80" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="9"/>
       <c r="C81" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B81&amp;"]]")</f>
@@ -4717,28 +5087,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D81&amp;"&lt;/h4&gt;"&amp;C81&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H81" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I81" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J81" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H81" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D81&amp;"&lt;/h4&gt;"&amp;C81&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I81" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J81" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K81" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L81" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M81" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="9"/>
       <c r="C82" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B82&amp;"]]")</f>
@@ -4754,28 +5128,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D82&amp;"&lt;/h4&gt;"&amp;C82&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H82" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I82" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J82" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H82" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D82&amp;"&lt;/h4&gt;"&amp;C82&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I82" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J82" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K82" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L82" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M82" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B83" s="9"/>
       <c r="C83" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B83&amp;"]]")</f>
@@ -4791,28 +5169,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D83&amp;"&lt;/h4&gt;"&amp;C83&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H83" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I83" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J83" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H83" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D83&amp;"&lt;/h4&gt;"&amp;C83&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I83" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J83" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K83" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L83" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M83" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B84" s="9"/>
       <c r="C84" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B84&amp;"]]")</f>
@@ -4828,28 +5210,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D84&amp;"&lt;/h4&gt;"&amp;C84&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H84" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I84" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J84" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H84" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D84&amp;"&lt;/h4&gt;"&amp;C84&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I84" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J84" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K84" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L84" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M84" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="9"/>
       <c r="C85" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B85&amp;"]]")</f>
@@ -4865,28 +5251,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D85&amp;"&lt;/h4&gt;"&amp;C85&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H85" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I85" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J85" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H85" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D85&amp;"&lt;/h4&gt;"&amp;C85&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I85" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J85" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K85" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L85" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M85" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="9"/>
       <c r="C86" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B86&amp;"]]")</f>
@@ -4902,28 +5292,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D86&amp;"&lt;/h4&gt;"&amp;C86&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H86" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I86" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J86" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H86" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D86&amp;"&lt;/h4&gt;"&amp;C86&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I86" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J86" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K86" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L86" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M86" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="9"/>
       <c r="C87" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B87&amp;"]]")</f>
@@ -4939,28 +5333,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D87&amp;"&lt;/h4&gt;"&amp;C87&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H87" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I87" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J87" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H87" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D87&amp;"&lt;/h4&gt;"&amp;C87&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I87" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J87" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K87" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L87" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M87" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="9"/>
       <c r="C88" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B88&amp;"]]")</f>
@@ -4976,28 +5374,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D88&amp;"&lt;/h4&gt;"&amp;C88&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H88" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I88" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J88" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H88" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D88&amp;"&lt;/h4&gt;"&amp;C88&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I88" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J88" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K88" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L88" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M88" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="9"/>
       <c r="C89" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B89&amp;"]]")</f>
@@ -5013,28 +5415,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D89&amp;"&lt;/h4&gt;"&amp;C89&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H89" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I89" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J89" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H89" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D89&amp;"&lt;/h4&gt;"&amp;C89&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I89" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J89" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K89" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L89" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M89" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="9"/>
       <c r="C90" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B90&amp;"]]")</f>
@@ -5050,28 +5456,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D90&amp;"&lt;/h4&gt;"&amp;C90&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H90" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I90" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J90" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H90" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D90&amp;"&lt;/h4&gt;"&amp;C90&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I90" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J90" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K90" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L90" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M90" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B91" s="9"/>
       <c r="C91" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B91&amp;"]]")</f>
@@ -5087,28 +5497,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D91&amp;"&lt;/h4&gt;"&amp;C91&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H91" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I91" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J91" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H91" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D91&amp;"&lt;/h4&gt;"&amp;C91&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I91" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J91" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K91" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L91" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M91" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="9"/>
       <c r="C92" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B92&amp;"]]")</f>
@@ -5124,28 +5538,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D92&amp;"&lt;/h4&gt;"&amp;C92&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H92" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I92" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J92" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H92" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D92&amp;"&lt;/h4&gt;"&amp;C92&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I92" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J92" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K92" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L92" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M92" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B93" s="9"/>
       <c r="C93" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B93&amp;"]]")</f>
@@ -5161,28 +5579,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D93&amp;"&lt;/h4&gt;"&amp;C93&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H93" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I93" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J93" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H93" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D93&amp;"&lt;/h4&gt;"&amp;C93&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I93" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J93" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K93" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L93" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M93" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="9"/>
       <c r="C94" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B94&amp;"]]")</f>
@@ -5198,28 +5620,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D94&amp;"&lt;/h4&gt;"&amp;C94&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H94" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I94" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J94" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H94" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D94&amp;"&lt;/h4&gt;"&amp;C94&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I94" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J94" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K94" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L94" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M94" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B95" s="9"/>
       <c r="C95" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B95&amp;"]]")</f>
@@ -5235,28 +5661,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D95&amp;"&lt;/h4&gt;"&amp;C95&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H95" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I95" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J95" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H95" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D95&amp;"&lt;/h4&gt;"&amp;C95&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I95" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J95" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K95" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L95" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M95" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B96" s="9"/>
       <c r="C96" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B96&amp;"]]")</f>
@@ -5272,28 +5702,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D96&amp;"&lt;/h4&gt;"&amp;C96&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H96" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I96" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J96" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H96" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D96&amp;"&lt;/h4&gt;"&amp;C96&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I96" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J96" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K96" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L96" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M96" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="9"/>
       <c r="C97" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B97&amp;"]]")</f>
@@ -5309,28 +5743,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D97&amp;"&lt;/h4&gt;"&amp;C97&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H97" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I97" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J97" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H97" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D97&amp;"&lt;/h4&gt;"&amp;C97&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I97" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J97" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K97" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L97" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M97" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="9"/>
       <c r="C98" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B98&amp;"]]")</f>
@@ -5346,28 +5784,32 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D98&amp;"&lt;/h4&gt;"&amp;C98&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H98" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I98" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J98" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H98" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D98&amp;"&lt;/h4&gt;"&amp;C98&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I98" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J98" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K98" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L98" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M98" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B99" s="9"/>
       <c r="C99" s="14" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B99&amp;"]]")</f>
@@ -5383,29 +5825,33 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D99&amp;"&lt;/h4&gt;"&amp;C99&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H99" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v/>
-      </c>
-      <c r="I99" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
-        <v/>
-      </c>
-      <c r="J99" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+      <c r="H99" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D99&amp;"&lt;/h4&gt;"&amp;C99&amp;"&lt;br&gt;&lt;/div&gt;")</f>
+        <v/>
+      </c>
+      <c r="I99" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="J99" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K99" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L99" s="21" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B100" s="11"/>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M99" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="2:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B100" s="9"/>
       <c r="C100" s="15" t="str">
         <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B100&amp;"]]")</f>
         <v>[[]]</v>
@@ -5420,23 +5866,27 @@
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D100&amp;"&lt;/h4&gt;"&amp;C100&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
         <v/>
       </c>
-      <c r="H100" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+      <c r="H100" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D100&amp;"&lt;/h4&gt;"&amp;C100&amp;"&lt;br&gt;&lt;/div&gt;")</f>
         <v/>
       </c>
       <c r="I100" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
         <v/>
       </c>
       <c r="J100" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
         <v/>
       </c>
       <c r="K100" s="22" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
         <v/>
       </c>
       <c r="L100" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="M100" s="22" t="str">
         <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
         <v/>
       </c>
@@ -5445,21 +5895,21 @@
   <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" selectLockedCells="1" sort="0"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B3:C100">
-    <cfRule type="expression" dxfId="20" priority="10">
+    <cfRule type="expression" dxfId="5" priority="10">
       <formula>$C3="[[]]"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B100">
-    <cfRule type="duplicateValues" dxfId="19" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E5 D6 D7:E100">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"&lt;----- Add field or select a ##tag##"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B3:B100" xr:uid="{2FF112CA-4D3E-4848-A19A-DD1F10DA2840}">
-      <formula1>$N$3:$N$8</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B3:B100" xr:uid="{150DBDA8-7E64-4BC9-9E24-D3FB2941FD7C}">
+      <formula1>$O$3:$O$10</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -5570,7 +6020,7 @@
         <v>Advanced search template</v>
       </c>
       <c r="C5" s="5" t="str">
-        <f>"&lt;style&gt; .boxaligncenter { width: 100%; } .boxaligncenter select { margin-top: 0.5rem; margin-bottom: 1rem; } .boxaligncenter input { margin-top: 0.5rem; } #region-main h4 { margin-top: 0!important; margin-bottom: 0!important; } &lt;/style&gt;"&amp;"&lt;div class='container'&gt;&lt;div class='card mb-4 rounded'&gt;&lt;div class='card-header bg-info'&gt;&lt;h4 class='m-2'&gt;"&amp;IF(Settings!$E$7="EN", "Search", "Suche")&amp;"&lt;/h4&gt;&lt;/div&gt;&lt;div class='card-body pb-0 pt-4 m-0'&gt;&lt;div class='card-text m-0 p-0'&gt;"&amp;_xlfn.TEXTJOIN(,TRUE,Tabelle1[divs])&amp;"&lt;br&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;hr&gt;"</f>
+        <f>"&lt;style&gt; .boxaligncenter { width: 100%; } .boxaligncenter select { margin-top: 0.5rem; margin-bottom: 1rem; } .boxaligncenter input { margin-top: 0.5rem; } #region-main h4 { margin-top: 0!important; margin-bottom: 0!important; } &lt;/style&gt;"&amp;"&lt;div class='container'&gt;&lt;div class='card mb-4 rounded'&gt;&lt;div class='card-header bg-info'&gt;&lt;h4 class='m-2'&gt;"&amp;IF(Settings!$E$7="EN", "Search", "Suche")&amp;"&lt;/h4&gt;&lt;/div&gt;&lt;div class='card-body pb-0 pt-4 m-0'&gt;&lt;div class='card-text m-0 p-0'&gt;"&amp;_xlfn.TEXTJOIN(,TRUE,Tabelle1[Suche])&amp;"&lt;br&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;hr&gt;"</f>
         <v>&lt;style&gt; .boxaligncenter { width: 100%; } .boxaligncenter select { margin-top: 0.5rem; margin-bottom: 1rem; } .boxaligncenter input { margin-top: 0.5rem; } #region-main h4 { margin-top: 0!important; margin-bottom: 0!important; } &lt;/style&gt;&lt;div class='container'&gt;&lt;div class='card mb-4 rounded'&gt;&lt;div class='card-header bg-info'&gt;&lt;h4 class='m-2'&gt;Search&lt;/h4&gt;&lt;/div&gt;&lt;div class='card-body pb-0 pt-4 m-0'&gt;&lt;div class='card-text m-0 p-0'&gt;&lt;br&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;hr&gt;</v>
       </c>
       <c r="D5" s="1" t="str">
